--- a/src/AlgoComposition.xlsx
+++ b/src/AlgoComposition.xlsx
@@ -43,7 +43,7 @@
     <t xml:space="preserve">Nvidia</t>
   </si>
   <si>
-    <t xml:space="preserve">15.12.2024</t>
+    <t xml:space="preserve">26.12.2024</t>
   </si>
   <si>
     <t xml:space="preserve">15.12.2050</t>
@@ -292,7 +292,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2:D8"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/src/AlgoComposition.xlsx
+++ b/src/AlgoComposition.xlsx
@@ -5,10 +5,11 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="HighRisk" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="2020" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="2015" sheetId="2" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="25">
   <si>
     <t xml:space="preserve">Symbol</t>
   </si>
@@ -83,6 +84,18 @@
   </si>
   <si>
     <t xml:space="preserve">Apollo Asset Management</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSLA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tesla</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AAPL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apple Inc.</t>
   </si>
 </sst>
 </file>
@@ -291,8 +304,8 @@
   </sheetPr>
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2:C8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B20" activeCellId="0" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -327,7 +340,7 @@
       <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="1" t="n">
@@ -345,7 +358,7 @@
       <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E3" s="1" t="n">
@@ -363,7 +376,7 @@
       <c r="C4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="1" t="n">
@@ -381,7 +394,7 @@
       <c r="C5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E5" s="1" t="n">
@@ -399,7 +412,7 @@
       <c r="C6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E6" s="1" t="n">
@@ -417,7 +430,7 @@
       <c r="C7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E7" s="1" t="n">
@@ -435,7 +448,7 @@
       <c r="C8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E8" s="1" t="n">
@@ -452,4 +465,171 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="n">
+        <f aca="false">1/7</f>
+        <v>0.142857142857143</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1" t="n">
+        <f aca="false">1/7</f>
+        <v>0.142857142857143</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="1" t="n">
+        <f aca="false">1/7</f>
+        <v>0.142857142857143</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="1" t="n">
+        <f aca="false">1/7</f>
+        <v>0.142857142857143</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="1" t="n">
+        <f aca="false">1/7</f>
+        <v>0.142857142857143</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="1" t="n">
+        <f aca="false">1/7</f>
+        <v>0.142857142857143</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="1" t="n">
+        <f aca="false">1/7</f>
+        <v>0.142857142857143</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/src/AlgoComposition.xlsx
+++ b/src/AlgoComposition.xlsx
@@ -5,12 +5,18 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="2020" sheetId="1" state="visible" r:id="rId3"/>
-    <sheet name="2015" sheetId="2" state="visible" r:id="rId4"/>
+    <sheet name="2020old" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="2015old" sheetId="2" state="visible" r:id="rId4"/>
+    <sheet name="2020" sheetId="3" state="visible" r:id="rId5"/>
+    <sheet name="2015" sheetId="4" state="visible" r:id="rId6"/>
   </sheets>
+  <definedNames>
+    <definedName function="false" hidden="true" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">'2015'!$A$1:$E$37</definedName>
+    <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">'2020'!$A$1:$E$36</definedName>
+  </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -21,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="84">
   <si>
     <t xml:space="preserve">Symbol</t>
   </si>
@@ -96,16 +102,194 @@
   </si>
   <si>
     <t xml:space="preserve">Apple Inc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Micron</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Costco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AZO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Autozone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRMN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Garmin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mastercard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MELI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mercado Libre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KKR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PEP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pepsi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INTU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intuit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AJG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ServiceNow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ORCL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oracle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LULU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lululemon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TJX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TJX Companies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AMZN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amazon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GOOG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Google Inc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Visa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apple</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NVIDIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Palantir Technologies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AutoZone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Costco Wholesale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Home Depot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MercadoLibre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PepsiCo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amphenol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deere</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lowe's Companies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LRCX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lam Research</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lululemon Athletica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WMT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Walmart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amazon.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alphabet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DECK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deckers Outdoor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QCOM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qualcomm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seagate Technology Hldgs</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -127,6 +311,26 @@
       <name val="Arial"/>
       <family val="0"/>
     </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -136,7 +340,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -144,8 +348,15 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="20">
+  <cellStyleXfs count="26">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -169,8 +380,26 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -179,16 +408,67 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="12">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Comma" xfId="15" builtinId="3"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
     <cellStyle name="Currency" xfId="17" builtinId="4"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="Pivot Table Field" xfId="20"/>
+    <cellStyle name="Pivot Table Corner" xfId="21"/>
+    <cellStyle name="Pivot Table Value" xfId="22"/>
+    <cellStyle name="Pivot Table Category" xfId="23"/>
+    <cellStyle name="Pivot Table Title" xfId="24"/>
+    <cellStyle name="Pivot Table Result" xfId="25"/>
   </cellStyles>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -305,7 +585,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B20" activeCellId="0" sqref="B20"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="1" sqref="C2:C8 E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -474,8 +754,8 @@
   </sheetPr>
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="C2:C8 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -632,4 +912,1516 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:E56"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C19" activeCellId="1" sqref="C2:C8 C19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="5" t="n">
+        <v>45931</v>
+      </c>
+      <c r="C2" s="5" t="n">
+        <v>55146</v>
+      </c>
+      <c r="D2" s="6" t="n">
+        <f aca="false">1/7</f>
+        <v>0.142857142857143</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="5" t="n">
+        <v>45931</v>
+      </c>
+      <c r="C3" s="5" t="n">
+        <v>55146</v>
+      </c>
+      <c r="D3" s="6" t="n">
+        <f aca="false">1/7</f>
+        <v>0.142857142857143</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="5" t="n">
+        <v>45965</v>
+      </c>
+      <c r="C4" s="5" t="n">
+        <v>55146</v>
+      </c>
+      <c r="D4" s="6" t="n">
+        <f aca="false">1/7</f>
+        <v>0.142857142857143</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="5" t="n">
+        <v>45903</v>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>55146</v>
+      </c>
+      <c r="D5" s="6" t="n">
+        <f aca="false">1/7</f>
+        <v>0.142857142857143</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="n">
+        <v>45965</v>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>55146</v>
+      </c>
+      <c r="D6" s="6" t="n">
+        <f aca="false">1/7</f>
+        <v>0.142857142857143</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="5" t="n">
+        <v>45748</v>
+      </c>
+      <c r="C7" s="5" t="n">
+        <v>55146</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <f aca="false">1/7</f>
+        <v>0.142857142857143</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="5" t="n">
+        <v>45993</v>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>55146</v>
+      </c>
+      <c r="D8" s="6" t="n">
+        <f aca="false">1/7</f>
+        <v>0.142857142857143</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="5" t="n">
+        <v>45903</v>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>45992</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <f aca="false">1/7</f>
+        <v>0.142857142857143</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="5" t="n">
+        <v>45931</v>
+      </c>
+      <c r="C10" s="5" t="n">
+        <v>45964</v>
+      </c>
+      <c r="D10" s="6" t="n">
+        <f aca="false">1/7</f>
+        <v>0.142857142857143</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="5" t="n">
+        <v>45931</v>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>45964</v>
+      </c>
+      <c r="D11" s="6" t="n">
+        <f aca="false">1/7</f>
+        <v>0.142857142857143</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="5" t="n">
+        <v>45778</v>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>45930</v>
+      </c>
+      <c r="D12" s="6" t="n">
+        <f aca="false">1/7</f>
+        <v>0.142857142857143</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="5" t="n">
+        <v>45839</v>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>45930</v>
+      </c>
+      <c r="D13" s="6" t="n">
+        <f aca="false">1/7</f>
+        <v>0.142857142857143</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="5" t="n">
+        <v>45839</v>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>45930</v>
+      </c>
+      <c r="D14" s="6" t="n">
+        <f aca="false">1/7</f>
+        <v>0.142857142857143</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="5" t="n">
+        <v>45839</v>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>45930</v>
+      </c>
+      <c r="D15" s="6" t="n">
+        <f aca="false">1/7</f>
+        <v>0.142857142857143</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="5" t="n">
+        <v>45870</v>
+      </c>
+      <c r="C16" s="5" t="n">
+        <v>45902</v>
+      </c>
+      <c r="D16" s="6" t="n">
+        <f aca="false">1/7</f>
+        <v>0.142857142857143</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="5" t="n">
+        <v>45870</v>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>45902</v>
+      </c>
+      <c r="D17" s="6" t="n">
+        <f aca="false">1/7</f>
+        <v>0.142857142857143</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="5" t="n">
+        <v>45692</v>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>45869</v>
+      </c>
+      <c r="D18" s="6" t="n">
+        <f aca="false">1/7</f>
+        <v>0.142857142857143</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="5" t="n">
+        <v>45653</v>
+      </c>
+      <c r="C19" s="5" t="n">
+        <v>45869</v>
+      </c>
+      <c r="D19" s="6" t="n">
+        <f aca="false">1/7</f>
+        <v>0.142857142857143</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="5" t="n">
+        <v>45748</v>
+      </c>
+      <c r="C20" s="5" t="n">
+        <v>45838</v>
+      </c>
+      <c r="D20" s="6" t="n">
+        <f aca="false">1/7</f>
+        <v>0.142857142857143</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="5" t="n">
+        <v>45778</v>
+      </c>
+      <c r="C21" s="5" t="n">
+        <v>45838</v>
+      </c>
+      <c r="D21" s="6" t="n">
+        <f aca="false">1/7</f>
+        <v>0.142857142857143</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" s="5" t="n">
+        <v>45811</v>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>45838</v>
+      </c>
+      <c r="D22" s="6" t="n">
+        <f aca="false">1/7</f>
+        <v>0.142857142857143</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" s="5" t="n">
+        <v>45778</v>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>45810</v>
+      </c>
+      <c r="D23" s="6" t="n">
+        <f aca="false">1/7</f>
+        <v>0.142857142857143</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" s="5" t="n">
+        <v>45748</v>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>45777</v>
+      </c>
+      <c r="D24" s="6" t="n">
+        <f aca="false">1/7</f>
+        <v>0.142857142857143</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" s="5" t="n">
+        <v>45692</v>
+      </c>
+      <c r="C25" s="5" t="n">
+        <v>45777</v>
+      </c>
+      <c r="D25" s="6" t="n">
+        <f aca="false">1/7</f>
+        <v>0.142857142857143</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" s="5" t="n">
+        <v>45748</v>
+      </c>
+      <c r="C26" s="5" t="n">
+        <v>45777</v>
+      </c>
+      <c r="D26" s="6" t="n">
+        <f aca="false">1/7</f>
+        <v>0.142857142857143</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27" s="5" t="n">
+        <v>45653</v>
+      </c>
+      <c r="C27" s="5" t="n">
+        <v>45747</v>
+      </c>
+      <c r="D27" s="6" t="n">
+        <f aca="false">1/7</f>
+        <v>0.142857142857143</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B28" s="5" t="n">
+        <v>45653</v>
+      </c>
+      <c r="C28" s="5" t="n">
+        <v>45747</v>
+      </c>
+      <c r="D28" s="6" t="n">
+        <f aca="false">1/7</f>
+        <v>0.142857142857143</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" s="5" t="n">
+        <v>45660</v>
+      </c>
+      <c r="C29" s="5" t="n">
+        <v>45747</v>
+      </c>
+      <c r="D29" s="6" t="n">
+        <f aca="false">1/7</f>
+        <v>0.142857142857143</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" s="5" t="n">
+        <v>45660</v>
+      </c>
+      <c r="C30" s="5" t="n">
+        <v>45747</v>
+      </c>
+      <c r="D30" s="6" t="n">
+        <f aca="false">1/7</f>
+        <v>0.142857142857143</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B31" s="5" t="n">
+        <v>45660</v>
+      </c>
+      <c r="C31" s="5" t="n">
+        <v>45691</v>
+      </c>
+      <c r="D31" s="6" t="n">
+        <f aca="false">1/7</f>
+        <v>0.142857142857143</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B32" s="5" t="n">
+        <v>45660</v>
+      </c>
+      <c r="C32" s="5" t="n">
+        <v>45691</v>
+      </c>
+      <c r="D32" s="6" t="n">
+        <f aca="false">1/7</f>
+        <v>0.142857142857143</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B33" s="5" t="n">
+        <v>45653</v>
+      </c>
+      <c r="C33" s="5" t="n">
+        <v>45659</v>
+      </c>
+      <c r="D33" s="6" t="n">
+        <f aca="false">1/7</f>
+        <v>0.142857142857143</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B34" s="5" t="n">
+        <v>45653</v>
+      </c>
+      <c r="C34" s="5" t="n">
+        <v>45659</v>
+      </c>
+      <c r="D34" s="6" t="n">
+        <f aca="false">1/7</f>
+        <v>0.142857142857143</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B35" s="5" t="n">
+        <v>45653</v>
+      </c>
+      <c r="C35" s="5" t="n">
+        <v>45659</v>
+      </c>
+      <c r="D35" s="6" t="n">
+        <f aca="false">1/7</f>
+        <v>0.142857142857143</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B36" s="5" t="n">
+        <v>45653</v>
+      </c>
+      <c r="C36" s="5" t="n">
+        <v>45659</v>
+      </c>
+      <c r="D36" s="6" t="n">
+        <f aca="false">1/7</f>
+        <v>0.142857142857143</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="5"/>
+      <c r="B37" s="5"/>
+    </row>
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="5"/>
+      <c r="B38" s="5"/>
+    </row>
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="5"/>
+      <c r="B39" s="5"/>
+    </row>
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="5"/>
+      <c r="B40" s="5"/>
+    </row>
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="5"/>
+      <c r="B41" s="5"/>
+    </row>
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="5"/>
+      <c r="B42" s="5"/>
+    </row>
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="5"/>
+      <c r="B43" s="5"/>
+    </row>
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="5"/>
+      <c r="B44" s="5"/>
+    </row>
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="5"/>
+      <c r="B45" s="5"/>
+    </row>
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="5"/>
+      <c r="B46" s="5"/>
+    </row>
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="5"/>
+      <c r="B47" s="5"/>
+    </row>
+    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="5"/>
+      <c r="B48" s="5"/>
+    </row>
+    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="5"/>
+      <c r="B49" s="5"/>
+    </row>
+    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="5"/>
+      <c r="B50" s="5"/>
+    </row>
+    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="5"/>
+      <c r="B51" s="5"/>
+    </row>
+    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="5"/>
+      <c r="B52" s="5"/>
+    </row>
+    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="5"/>
+      <c r="B53" s="5"/>
+    </row>
+    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="5"/>
+      <c r="B54" s="5"/>
+    </row>
+    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="5"/>
+      <c r="B55" s="5"/>
+    </row>
+    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="5"/>
+      <c r="B56" s="5"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:E36"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:E56"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2:C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="19.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="26.43"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="5" t="n">
+        <v>45965</v>
+      </c>
+      <c r="C2" s="5" t="n">
+        <v>55146</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" s="6" t="n">
+        <f aca="false">1/7</f>
+        <v>0.142857142857143</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="5" t="n">
+        <v>45931</v>
+      </c>
+      <c r="C3" s="5" t="n">
+        <v>55146</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="6" t="n">
+        <f aca="false">1/7</f>
+        <v>0.142857142857143</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="5" t="n">
+        <v>45993</v>
+      </c>
+      <c r="C4" s="5" t="n">
+        <v>55146</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="6" t="n">
+        <f aca="false">1/7</f>
+        <v>0.142857142857143</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="5" t="n">
+        <v>45993</v>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>55146</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="6" t="n">
+        <f aca="false">1/7</f>
+        <v>0.142857142857143</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="n">
+        <v>45931</v>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>55146</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E6" s="6" t="n">
+        <f aca="false">1/7</f>
+        <v>0.142857142857143</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="5" t="n">
+        <v>45748</v>
+      </c>
+      <c r="C7" s="5" t="n">
+        <v>55146</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <f aca="false">1/7</f>
+        <v>0.142857142857143</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="5" t="n">
+        <v>45931</v>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>55146</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <f aca="false">1/7</f>
+        <v>0.142857142857143</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="5" t="n">
+        <v>45903</v>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>45992</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <f aca="false">1/7</f>
+        <v>0.142857142857143</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="5" t="n">
+        <v>45903</v>
+      </c>
+      <c r="C10" s="5" t="n">
+        <v>45992</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E10" s="6" t="n">
+        <f aca="false">1/7</f>
+        <v>0.142857142857143</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" s="5" t="n">
+        <v>45931</v>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>45964</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11" s="6" t="n">
+        <f aca="false">1/7</f>
+        <v>0.142857142857143</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="5" t="n">
+        <v>45839</v>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>45930</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="6" t="n">
+        <f aca="false">1/7</f>
+        <v>0.142857142857143</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="5" t="n">
+        <v>45839</v>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>45930</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <f aca="false">1/7</f>
+        <v>0.142857142857143</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="5" t="n">
+        <v>45839</v>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>45930</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <f aca="false">1/7</f>
+        <v>0.142857142857143</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="5" t="n">
+        <v>45839</v>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>45930</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <f aca="false">1/7</f>
+        <v>0.142857142857143</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="5" t="n">
+        <v>45870</v>
+      </c>
+      <c r="C16" s="5" t="n">
+        <v>45902</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E16" s="6" t="n">
+        <f aca="false">1/7</f>
+        <v>0.142857142857143</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B17" s="5" t="n">
+        <v>45870</v>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>45902</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" s="6" t="n">
+        <f aca="false">1/7</f>
+        <v>0.142857142857143</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="5" t="n">
+        <v>45748</v>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>45869</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E18" s="6" t="n">
+        <f aca="false">1/7</f>
+        <v>0.142857142857143</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="5" t="n">
+        <v>45653</v>
+      </c>
+      <c r="C19" s="5" t="n">
+        <v>45869</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <f aca="false">1/7</f>
+        <v>0.142857142857143</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="5" t="n">
+        <v>45778</v>
+      </c>
+      <c r="C20" s="5" t="n">
+        <v>45838</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <f aca="false">1/7</f>
+        <v>0.142857142857143</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" s="5" t="n">
+        <v>45778</v>
+      </c>
+      <c r="C21" s="5" t="n">
+        <v>45838</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <f aca="false">1/7</f>
+        <v>0.142857142857143</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B22" s="5" t="n">
+        <v>45778</v>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>45838</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E22" s="6" t="n">
+        <f aca="false">1/7</f>
+        <v>0.142857142857143</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" s="5" t="n">
+        <v>45811</v>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>45838</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E23" s="6" t="n">
+        <f aca="false">1/7</f>
+        <v>0.142857142857143</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B24" s="5" t="n">
+        <v>45748</v>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>45810</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E24" s="6" t="n">
+        <f aca="false">1/7</f>
+        <v>0.142857142857143</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" s="5" t="n">
+        <v>45692</v>
+      </c>
+      <c r="C25" s="5" t="n">
+        <v>45777</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E25" s="6" t="n">
+        <f aca="false">1/7</f>
+        <v>0.142857142857143</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" s="5" t="n">
+        <v>45748</v>
+      </c>
+      <c r="C26" s="5" t="n">
+        <v>45777</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E26" s="6" t="n">
+        <f aca="false">1/7</f>
+        <v>0.142857142857143</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B27" s="5" t="n">
+        <v>45748</v>
+      </c>
+      <c r="C27" s="5" t="n">
+        <v>45777</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E27" s="6" t="n">
+        <f aca="false">1/7</f>
+        <v>0.142857142857143</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B28" s="5" t="n">
+        <v>45653</v>
+      </c>
+      <c r="C28" s="5" t="n">
+        <v>45747</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E28" s="6" t="n">
+        <f aca="false">1/7</f>
+        <v>0.142857142857143</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B29" s="5" t="n">
+        <v>45653</v>
+      </c>
+      <c r="C29" s="5" t="n">
+        <v>45747</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E29" s="6" t="n">
+        <f aca="false">1/7</f>
+        <v>0.142857142857143</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B30" s="5" t="n">
+        <v>45660</v>
+      </c>
+      <c r="C30" s="5" t="n">
+        <v>45747</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E30" s="6" t="n">
+        <f aca="false">1/7</f>
+        <v>0.142857142857143</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" s="5" t="n">
+        <v>45660</v>
+      </c>
+      <c r="C31" s="5" t="n">
+        <v>45747</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E31" s="6" t="n">
+        <f aca="false">1/7</f>
+        <v>0.142857142857143</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32" s="5" t="n">
+        <v>45660</v>
+      </c>
+      <c r="C32" s="5" t="n">
+        <v>45747</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E32" s="6" t="n">
+        <f aca="false">1/7</f>
+        <v>0.142857142857143</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33" s="5" t="n">
+        <v>45660</v>
+      </c>
+      <c r="C33" s="5" t="n">
+        <v>45691</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E33" s="6" t="n">
+        <f aca="false">1/7</f>
+        <v>0.142857142857143</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B34" s="5" t="n">
+        <v>45653</v>
+      </c>
+      <c r="C34" s="5" t="n">
+        <v>45659</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E34" s="6" t="n">
+        <f aca="false">1/7</f>
+        <v>0.142857142857143</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B35" s="5" t="n">
+        <v>45653</v>
+      </c>
+      <c r="C35" s="5" t="n">
+        <v>45659</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E35" s="6" t="n">
+        <f aca="false">1/7</f>
+        <v>0.142857142857143</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B36" s="5" t="n">
+        <v>45653</v>
+      </c>
+      <c r="C36" s="5" t="n">
+        <v>45659</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E36" s="6" t="n">
+        <f aca="false">1/7</f>
+        <v>0.142857142857143</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B37" s="5" t="n">
+        <v>45653</v>
+      </c>
+      <c r="C37" s="5" t="n">
+        <v>45659</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E37" s="6" t="n">
+        <f aca="false">1/7</f>
+        <v>0.142857142857143</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="5"/>
+    </row>
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="5"/>
+    </row>
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="5"/>
+    </row>
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="5"/>
+    </row>
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="5"/>
+    </row>
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="5"/>
+    </row>
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="5"/>
+    </row>
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="5"/>
+    </row>
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="5"/>
+    </row>
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="5"/>
+    </row>
+    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="5"/>
+    </row>
+    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="5"/>
+    </row>
+    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="5"/>
+    </row>
+    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="5"/>
+    </row>
+    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="5"/>
+    </row>
+    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="5"/>
+    </row>
+    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="5"/>
+    </row>
+    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="5"/>
+    </row>
+    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="5"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:E37"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/src/AlgoComposition.xlsx
+++ b/src/AlgoComposition.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="2020old" sheetId="1" state="visible" r:id="rId3"/>
@@ -15,7 +15,7 @@
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">'2015'!$A$1:$E$37</definedName>
-    <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">'2020'!$A$1:$E$36</definedName>
+    <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">'2020'!$A$1:$E$37</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="86">
   <si>
     <t xml:space="preserve">Symbol</t>
   </si>
@@ -105,6 +105,12 @@
   </si>
   <si>
     <t xml:space="preserve">Micron</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HOOD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Robinhood Markets Inc</t>
   </si>
   <si>
     <t xml:space="preserve">COST</t>
@@ -381,7 +387,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
@@ -389,17 +395,17 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -408,19 +414,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -428,11 +434,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -444,12 +446,12 @@
     <cellStyle name="Currency" xfId="17" builtinId="4"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
-    <cellStyle name="Pivot Table Field" xfId="20"/>
+    <cellStyle name="Pivot Table Category" xfId="20"/>
     <cellStyle name="Pivot Table Corner" xfId="21"/>
-    <cellStyle name="Pivot Table Value" xfId="22"/>
-    <cellStyle name="Pivot Table Category" xfId="23"/>
+    <cellStyle name="Pivot Table Field" xfId="22"/>
+    <cellStyle name="Pivot Table Result" xfId="23"/>
     <cellStyle name="Pivot Table Title" xfId="24"/>
-    <cellStyle name="Pivot Table Result" xfId="25"/>
+    <cellStyle name="Pivot Table Value" xfId="25"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -585,7 +587,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="1" sqref="C2:C8 E1"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -755,7 +757,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="C2:C8 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -921,15 +923,15 @@
   </sheetPr>
   <dimension ref="A1:E56"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C19" activeCellId="1" sqref="C2:C8 C19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="17.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="18.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -963,7 +965,7 @@
         <f aca="false">1/7</f>
         <v>0.142857142857143</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>18</v>
       </c>
     </row>
@@ -981,7 +983,7 @@
         <f aca="false">1/7</f>
         <v>0.142857142857143</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="6" t="s">
         <v>16</v>
       </c>
     </row>
@@ -999,7 +1001,7 @@
         <f aca="false">1/7</f>
         <v>0.142857142857143</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="6" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1017,7 +1019,7 @@
         <f aca="false">1/7</f>
         <v>0.142857142857143</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="6" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1035,7 +1037,7 @@
         <f aca="false">1/7</f>
         <v>0.142857142857143</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="6" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1053,16 +1055,16 @@
         <f aca="false">1/7</f>
         <v>0.142857142857143</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B8" s="5" t="n">
-        <v>45993</v>
+        <v>46048</v>
       </c>
       <c r="C8" s="5" t="n">
         <v>55146</v>
@@ -1071,49 +1073,49 @@
         <f aca="false">1/7</f>
         <v>0.142857142857143</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>22</v>
+      <c r="E8" s="6" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B9" s="5" t="n">
-        <v>45903</v>
+        <v>45993</v>
       </c>
       <c r="C9" s="5" t="n">
-        <v>45992</v>
+        <v>46047</v>
       </c>
       <c r="D9" s="6" t="n">
         <f aca="false">1/7</f>
         <v>0.142857142857143</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>27</v>
+      <c r="E9" s="6" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="B10" s="5" t="n">
-        <v>45931</v>
+        <v>45903</v>
       </c>
       <c r="C10" s="5" t="n">
-        <v>45964</v>
+        <v>45992</v>
       </c>
       <c r="D10" s="6" t="n">
         <f aca="false">1/7</f>
         <v>0.142857142857143</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>19</v>
+      <c r="E10" s="6" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B11" s="5" t="n">
         <v>45931</v>
@@ -1125,8 +1127,8 @@
         <f aca="false">1/7</f>
         <v>0.142857142857143</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>29</v>
+      <c r="E11" s="6" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1134,25 +1136,25 @@
         <v>30</v>
       </c>
       <c r="B12" s="5" t="n">
-        <v>45778</v>
+        <v>45931</v>
       </c>
       <c r="C12" s="5" t="n">
-        <v>45930</v>
+        <v>45964</v>
       </c>
       <c r="D12" s="6" t="n">
         <f aca="false">1/7</f>
         <v>0.142857142857143</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>30</v>
+      <c r="E12" s="6" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B13" s="5" t="n">
-        <v>45839</v>
+        <v>45778</v>
       </c>
       <c r="C13" s="5" t="n">
         <v>45930</v>
@@ -1161,7 +1163,7 @@
         <f aca="false">1/7</f>
         <v>0.142857142857143</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="6" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1179,7 +1181,7 @@
         <f aca="false">1/7</f>
         <v>0.142857142857143</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="6" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1197,7 +1199,7 @@
         <f aca="false">1/7</f>
         <v>0.142857142857143</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E15" s="6" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1206,22 +1208,22 @@
         <v>37</v>
       </c>
       <c r="B16" s="5" t="n">
-        <v>45870</v>
+        <v>45839</v>
       </c>
       <c r="C16" s="5" t="n">
-        <v>45902</v>
+        <v>45930</v>
       </c>
       <c r="D16" s="6" t="n">
         <f aca="false">1/7</f>
         <v>0.142857142857143</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>37</v>
+      <c r="E16" s="6" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B17" s="5" t="n">
         <v>45870</v>
@@ -1233,7 +1235,7 @@
         <f aca="false">1/7</f>
         <v>0.142857142857143</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E17" s="6" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1242,25 +1244,25 @@
         <v>40</v>
       </c>
       <c r="B18" s="5" t="n">
-        <v>45692</v>
+        <v>45870</v>
       </c>
       <c r="C18" s="5" t="n">
-        <v>45869</v>
+        <v>45902</v>
       </c>
       <c r="D18" s="6" t="n">
         <f aca="false">1/7</f>
         <v>0.142857142857143</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="E18" s="6" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="B19" s="5" t="n">
-        <v>45653</v>
+        <v>45692</v>
       </c>
       <c r="C19" s="5" t="n">
         <v>45869</v>
@@ -1269,34 +1271,34 @@
         <f aca="false">1/7</f>
         <v>0.142857142857143</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>6</v>
+      <c r="E19" s="6" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="4" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="B20" s="5" t="n">
-        <v>45748</v>
+        <v>45653</v>
       </c>
       <c r="C20" s="5" t="n">
-        <v>45838</v>
+        <v>45869</v>
       </c>
       <c r="D20" s="6" t="n">
         <f aca="false">1/7</f>
         <v>0.142857142857143</v>
       </c>
-      <c r="E20" s="7" t="s">
-        <v>42</v>
+      <c r="E20" s="6" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B21" s="5" t="n">
-        <v>45778</v>
+        <v>45748</v>
       </c>
       <c r="C21" s="5" t="n">
         <v>45838</v>
@@ -1305,7 +1307,7 @@
         <f aca="false">1/7</f>
         <v>0.142857142857143</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="E21" s="6" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1314,7 +1316,7 @@
         <v>45</v>
       </c>
       <c r="B22" s="5" t="n">
-        <v>45811</v>
+        <v>45778</v>
       </c>
       <c r="C22" s="5" t="n">
         <v>45838</v>
@@ -1323,7 +1325,7 @@
         <f aca="false">1/7</f>
         <v>0.142857142857143</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="E22" s="6" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1332,43 +1334,43 @@
         <v>47</v>
       </c>
       <c r="B23" s="5" t="n">
-        <v>45778</v>
+        <v>45811</v>
       </c>
       <c r="C23" s="5" t="n">
-        <v>45810</v>
+        <v>45838</v>
       </c>
       <c r="D23" s="6" t="n">
         <f aca="false">1/7</f>
         <v>0.142857142857143</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>47</v>
+      <c r="E23" s="6" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="4" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="B24" s="5" t="n">
-        <v>45748</v>
+        <v>45778</v>
       </c>
       <c r="C24" s="5" t="n">
-        <v>45777</v>
+        <v>45810</v>
       </c>
       <c r="D24" s="6" t="n">
         <f aca="false">1/7</f>
         <v>0.142857142857143</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>14</v>
+      <c r="E24" s="6" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="4" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="B25" s="5" t="n">
-        <v>45692</v>
+        <v>45748</v>
       </c>
       <c r="C25" s="5" t="n">
         <v>45777</v>
@@ -1377,8 +1379,8 @@
         <f aca="false">1/7</f>
         <v>0.142857142857143</v>
       </c>
-      <c r="E25" s="7" t="s">
-        <v>49</v>
+      <c r="E25" s="6" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1386,7 +1388,7 @@
         <v>50</v>
       </c>
       <c r="B26" s="5" t="n">
-        <v>45748</v>
+        <v>45692</v>
       </c>
       <c r="C26" s="5" t="n">
         <v>45777</v>
@@ -1395,31 +1397,31 @@
         <f aca="false">1/7</f>
         <v>0.142857142857143</v>
       </c>
-      <c r="E26" s="7" t="s">
+      <c r="E26" s="6" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="4" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="B27" s="5" t="n">
-        <v>45653</v>
+        <v>45748</v>
       </c>
       <c r="C27" s="5" t="n">
-        <v>45747</v>
+        <v>45777</v>
       </c>
       <c r="D27" s="6" t="n">
         <f aca="false">1/7</f>
         <v>0.142857142857143</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>24</v>
+      <c r="E27" s="6" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="4" t="s">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="B28" s="5" t="n">
         <v>45653</v>
@@ -1431,16 +1433,16 @@
         <f aca="false">1/7</f>
         <v>0.142857142857143</v>
       </c>
-      <c r="E28" s="7" t="s">
-        <v>53</v>
+      <c r="E28" s="6" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="4" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="B29" s="5" t="n">
-        <v>45660</v>
+        <v>45653</v>
       </c>
       <c r="C29" s="5" t="n">
         <v>45747</v>
@@ -1449,13 +1451,13 @@
         <f aca="false">1/7</f>
         <v>0.142857142857143</v>
       </c>
-      <c r="E29" s="7" t="s">
-        <v>32</v>
+      <c r="E29" s="6" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B30" s="5" t="n">
         <v>45660</v>
@@ -1467,31 +1469,31 @@
         <f aca="false">1/7</f>
         <v>0.142857142857143</v>
       </c>
-      <c r="E30" s="7" t="s">
-        <v>36</v>
+      <c r="E30" s="6" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="4" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="B31" s="5" t="n">
         <v>45660</v>
       </c>
       <c r="C31" s="5" t="n">
-        <v>45691</v>
+        <v>45747</v>
       </c>
       <c r="D31" s="6" t="n">
         <f aca="false">1/7</f>
         <v>0.142857142857143</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>55</v>
+      <c r="E31" s="6" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="4" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="B32" s="5" t="n">
         <v>45660</v>
@@ -1503,31 +1505,31 @@
         <f aca="false">1/7</f>
         <v>0.142857142857143</v>
       </c>
-      <c r="E32" s="7" t="s">
-        <v>10</v>
+      <c r="E32" s="6" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="4" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B33" s="5" t="n">
-        <v>45653</v>
+        <v>45660</v>
       </c>
       <c r="C33" s="5" t="n">
-        <v>45659</v>
+        <v>45691</v>
       </c>
       <c r="D33" s="6" t="n">
         <f aca="false">1/7</f>
         <v>0.142857142857143</v>
       </c>
-      <c r="E33" s="7" t="s">
-        <v>18</v>
+      <c r="E33" s="6" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B34" s="5" t="n">
         <v>45653</v>
@@ -1539,13 +1541,13 @@
         <f aca="false">1/7</f>
         <v>0.142857142857143</v>
       </c>
-      <c r="E34" s="7" t="s">
-        <v>16</v>
+      <c r="E34" s="6" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B35" s="5" t="n">
         <v>45653</v>
@@ -1557,13 +1559,13 @@
         <f aca="false">1/7</f>
         <v>0.142857142857143</v>
       </c>
-      <c r="E35" s="7" t="s">
-        <v>19</v>
+      <c r="E35" s="6" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="4" t="s">
-        <v>56</v>
+        <v>19</v>
       </c>
       <c r="B36" s="5" t="n">
         <v>45653</v>
@@ -1575,13 +1577,27 @@
         <f aca="false">1/7</f>
         <v>0.142857142857143</v>
       </c>
-      <c r="E36" s="7" t="s">
-        <v>57</v>
+      <c r="E36" s="6" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="5"/>
-      <c r="B37" s="5"/>
+      <c r="A37" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B37" s="5" t="n">
+        <v>45653</v>
+      </c>
+      <c r="C37" s="5" t="n">
+        <v>45659</v>
+      </c>
+      <c r="D37" s="6" t="n">
+        <f aca="false">1/7</f>
+        <v>0.142857142857143</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="5"/>
@@ -1660,7 +1676,7 @@
       <c r="B56" s="5"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E36"/>
+  <autoFilter ref="A1:E37"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -1679,16 +1695,16 @@
   </sheetPr>
   <dimension ref="A1:E56"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2:C8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.32"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="19.93"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="26.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="15.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="20.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="19.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="26.43"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1704,7 +1720,7 @@
       <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1719,7 +1735,7 @@
         <v>55146</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E2" s="6" t="n">
         <f aca="false">1/7</f>
@@ -1791,7 +1807,7 @@
         <v>55146</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E6" s="6" t="n">
         <f aca="false">1/7</f>
@@ -1809,7 +1825,7 @@
         <v>55146</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E7" s="6" t="n">
         <f aca="false">1/7</f>
@@ -1836,7 +1852,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B9" s="5" t="n">
         <v>45903</v>
@@ -1845,7 +1861,7 @@
         <v>45992</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E9" s="6" t="n">
         <f aca="false">1/7</f>
@@ -1854,7 +1870,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B10" s="5" t="n">
         <v>45903</v>
@@ -1863,7 +1879,7 @@
         <v>45992</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E10" s="6" t="n">
         <f aca="false">1/7</f>
@@ -1872,7 +1888,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B11" s="5" t="n">
         <v>45931</v>
@@ -1881,7 +1897,7 @@
         <v>45964</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E11" s="6" t="n">
         <f aca="false">1/7</f>
@@ -1890,7 +1906,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B12" s="5" t="n">
         <v>45839</v>
@@ -1899,7 +1915,7 @@
         <v>45930</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E12" s="6" t="n">
         <f aca="false">1/7</f>
@@ -1908,7 +1924,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B13" s="5" t="n">
         <v>45839</v>
@@ -1917,7 +1933,7 @@
         <v>45930</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E13" s="6" t="n">
         <f aca="false">1/7</f>
@@ -1926,7 +1942,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B14" s="5" t="n">
         <v>45839</v>
@@ -1935,7 +1951,7 @@
         <v>45930</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E14" s="6" t="n">
         <f aca="false">1/7</f>
@@ -1944,7 +1960,7 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B15" s="5" t="n">
         <v>45839</v>
@@ -1953,7 +1969,7 @@
         <v>45930</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E15" s="6" t="n">
         <f aca="false">1/7</f>
@@ -1962,7 +1978,7 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B16" s="5" t="n">
         <v>45870</v>
@@ -1971,7 +1987,7 @@
         <v>45902</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E16" s="6" t="n">
         <f aca="false">1/7</f>
@@ -1980,7 +1996,7 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B17" s="5" t="n">
         <v>45870</v>
@@ -1989,7 +2005,7 @@
         <v>45902</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E17" s="6" t="n">
         <f aca="false">1/7</f>
@@ -1998,7 +2014,7 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B18" s="5" t="n">
         <v>45748</v>
@@ -2007,7 +2023,7 @@
         <v>45869</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E18" s="6" t="n">
         <f aca="false">1/7</f>
@@ -2025,7 +2041,7 @@
         <v>45869</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E19" s="6" t="n">
         <f aca="false">1/7</f>
@@ -2034,7 +2050,7 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B20" s="5" t="n">
         <v>45778</v>
@@ -2043,7 +2059,7 @@
         <v>45838</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E20" s="6" t="n">
         <f aca="false">1/7</f>
@@ -2052,7 +2068,7 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B21" s="5" t="n">
         <v>45778</v>
@@ -2061,7 +2077,7 @@
         <v>45838</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E21" s="6" t="n">
         <f aca="false">1/7</f>
@@ -2070,7 +2086,7 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B22" s="5" t="n">
         <v>45778</v>
@@ -2079,7 +2095,7 @@
         <v>45838</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E22" s="6" t="n">
         <f aca="false">1/7</f>
@@ -2088,7 +2104,7 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B23" s="5" t="n">
         <v>45811</v>
@@ -2097,7 +2113,7 @@
         <v>45838</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E23" s="6" t="n">
         <f aca="false">1/7</f>
@@ -2106,7 +2122,7 @@
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B24" s="5" t="n">
         <v>45748</v>
@@ -2115,7 +2131,7 @@
         <v>45810</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E24" s="6" t="n">
         <f aca="false">1/7</f>
@@ -2124,7 +2140,7 @@
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B25" s="5" t="n">
         <v>45692</v>
@@ -2133,7 +2149,7 @@
         <v>45777</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E25" s="6" t="n">
         <f aca="false">1/7</f>
@@ -2142,7 +2158,7 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B26" s="5" t="n">
         <v>45748</v>
@@ -2151,7 +2167,7 @@
         <v>45777</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E26" s="6" t="n">
         <f aca="false">1/7</f>
@@ -2160,7 +2176,7 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B27" s="5" t="n">
         <v>45748</v>
@@ -2169,7 +2185,7 @@
         <v>45777</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E27" s="6" t="n">
         <f aca="false">1/7</f>
@@ -2187,7 +2203,7 @@
         <v>45747</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E28" s="6" t="n">
         <f aca="false">1/7</f>
@@ -2196,7 +2212,7 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B29" s="5" t="n">
         <v>45653</v>
@@ -2205,7 +2221,7 @@
         <v>45747</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E29" s="6" t="n">
         <f aca="false">1/7</f>
@@ -2214,7 +2230,7 @@
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B30" s="5" t="n">
         <v>45660</v>
@@ -2223,7 +2239,7 @@
         <v>45747</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E30" s="6" t="n">
         <f aca="false">1/7</f>
@@ -2232,7 +2248,7 @@
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B31" s="5" t="n">
         <v>45660</v>
@@ -2241,7 +2257,7 @@
         <v>45747</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E31" s="6" t="n">
         <f aca="false">1/7</f>
@@ -2250,7 +2266,7 @@
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B32" s="5" t="n">
         <v>45660</v>
@@ -2259,7 +2275,7 @@
         <v>45747</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E32" s="6" t="n">
         <f aca="false">1/7</f>
@@ -2268,7 +2284,7 @@
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B33" s="5" t="n">
         <v>45660</v>
@@ -2277,7 +2293,7 @@
         <v>45691</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E33" s="6" t="n">
         <f aca="false">1/7</f>
@@ -2304,7 +2320,7 @@
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="4" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B35" s="5" t="n">
         <v>45653</v>
@@ -2313,7 +2329,7 @@
         <v>45659</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E35" s="6" t="n">
         <f aca="false">1/7</f>
@@ -2322,7 +2338,7 @@
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B36" s="5" t="n">
         <v>45653</v>
@@ -2331,7 +2347,7 @@
         <v>45659</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E36" s="6" t="n">
         <f aca="false">1/7</f>
@@ -2340,7 +2356,7 @@
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="4" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B37" s="5" t="n">
         <v>45653</v>
@@ -2349,7 +2365,7 @@
         <v>45659</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E37" s="6" t="n">
         <f aca="false">1/7</f>

--- a/src/AlgoComposition.xlsx
+++ b/src/AlgoComposition.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="2020old" sheetId="1" state="visible" r:id="rId3"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="86">
   <si>
     <t xml:space="preserve">Symbol</t>
   </si>
@@ -201,6 +201,12 @@
   </si>
   <si>
     <t xml:space="preserve">Visa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HOOD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Robinhood Markets Inc.</t>
   </si>
   <si>
     <t xml:space="preserve">Apple</t>
@@ -381,7 +387,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
@@ -389,17 +395,17 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -408,19 +414,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -428,11 +434,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -444,12 +446,12 @@
     <cellStyle name="Currency" xfId="17" builtinId="4"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
-    <cellStyle name="Pivot Table Field" xfId="20"/>
+    <cellStyle name="Pivot Table Category" xfId="20"/>
     <cellStyle name="Pivot Table Corner" xfId="21"/>
-    <cellStyle name="Pivot Table Value" xfId="22"/>
-    <cellStyle name="Pivot Table Category" xfId="23"/>
+    <cellStyle name="Pivot Table Field" xfId="22"/>
+    <cellStyle name="Pivot Table Result" xfId="23"/>
     <cellStyle name="Pivot Table Title" xfId="24"/>
-    <cellStyle name="Pivot Table Result" xfId="25"/>
+    <cellStyle name="Pivot Table Value" xfId="25"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -584,8 +586,8 @@
   </sheetPr>
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="1" sqref="C2:C8 E1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -754,8 +756,8 @@
   </sheetPr>
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="C2:C8 A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -921,15 +923,15 @@
   </sheetPr>
   <dimension ref="A1:E56"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C19" activeCellId="1" sqref="C2:C8 C19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="17.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="18.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -963,7 +965,7 @@
         <f aca="false">1/7</f>
         <v>0.142857142857143</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>18</v>
       </c>
     </row>
@@ -981,7 +983,7 @@
         <f aca="false">1/7</f>
         <v>0.142857142857143</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="6" t="s">
         <v>16</v>
       </c>
     </row>
@@ -999,7 +1001,7 @@
         <f aca="false">1/7</f>
         <v>0.142857142857143</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="6" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1017,7 +1019,7 @@
         <f aca="false">1/7</f>
         <v>0.142857142857143</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="6" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1035,7 +1037,7 @@
         <f aca="false">1/7</f>
         <v>0.142857142857143</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="6" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1053,7 +1055,7 @@
         <f aca="false">1/7</f>
         <v>0.142857142857143</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="6" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1065,13 +1067,13 @@
         <v>45993</v>
       </c>
       <c r="C8" s="5" t="n">
-        <v>55146</v>
+        <v>46047</v>
       </c>
       <c r="D8" s="6" t="n">
         <f aca="false">1/7</f>
         <v>0.142857142857143</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="6" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1089,7 +1091,7 @@
         <f aca="false">1/7</f>
         <v>0.142857142857143</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="6" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1107,7 +1109,7 @@
         <f aca="false">1/7</f>
         <v>0.142857142857143</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="6" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1125,7 +1127,7 @@
         <f aca="false">1/7</f>
         <v>0.142857142857143</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="6" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1143,7 +1145,7 @@
         <f aca="false">1/7</f>
         <v>0.142857142857143</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="6" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1161,7 +1163,7 @@
         <f aca="false">1/7</f>
         <v>0.142857142857143</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="6" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1179,7 +1181,7 @@
         <f aca="false">1/7</f>
         <v>0.142857142857143</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="6" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1197,7 +1199,7 @@
         <f aca="false">1/7</f>
         <v>0.142857142857143</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E15" s="6" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1215,7 +1217,7 @@
         <f aca="false">1/7</f>
         <v>0.142857142857143</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="E16" s="6" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1233,7 +1235,7 @@
         <f aca="false">1/7</f>
         <v>0.142857142857143</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E17" s="6" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1251,7 +1253,7 @@
         <f aca="false">1/7</f>
         <v>0.142857142857143</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="E18" s="6" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1269,7 +1271,7 @@
         <f aca="false">1/7</f>
         <v>0.142857142857143</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="E19" s="6" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1287,7 +1289,7 @@
         <f aca="false">1/7</f>
         <v>0.142857142857143</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="E20" s="6" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1305,7 +1307,7 @@
         <f aca="false">1/7</f>
         <v>0.142857142857143</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="E21" s="6" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1323,7 +1325,7 @@
         <f aca="false">1/7</f>
         <v>0.142857142857143</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="E22" s="6" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1341,7 +1343,7 @@
         <f aca="false">1/7</f>
         <v>0.142857142857143</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="E23" s="6" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1359,7 +1361,7 @@
         <f aca="false">1/7</f>
         <v>0.142857142857143</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="E24" s="6" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1377,7 +1379,7 @@
         <f aca="false">1/7</f>
         <v>0.142857142857143</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="E25" s="6" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1395,7 +1397,7 @@
         <f aca="false">1/7</f>
         <v>0.142857142857143</v>
       </c>
-      <c r="E26" s="7" t="s">
+      <c r="E26" s="6" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1413,7 +1415,7 @@
         <f aca="false">1/7</f>
         <v>0.142857142857143</v>
       </c>
-      <c r="E27" s="7" t="s">
+      <c r="E27" s="6" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1431,7 +1433,7 @@
         <f aca="false">1/7</f>
         <v>0.142857142857143</v>
       </c>
-      <c r="E28" s="7" t="s">
+      <c r="E28" s="6" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1449,7 +1451,7 @@
         <f aca="false">1/7</f>
         <v>0.142857142857143</v>
       </c>
-      <c r="E29" s="7" t="s">
+      <c r="E29" s="6" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1467,7 +1469,7 @@
         <f aca="false">1/7</f>
         <v>0.142857142857143</v>
       </c>
-      <c r="E30" s="7" t="s">
+      <c r="E30" s="6" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1485,7 +1487,7 @@
         <f aca="false">1/7</f>
         <v>0.142857142857143</v>
       </c>
-      <c r="E31" s="7" t="s">
+      <c r="E31" s="6" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1503,7 +1505,7 @@
         <f aca="false">1/7</f>
         <v>0.142857142857143</v>
       </c>
-      <c r="E32" s="7" t="s">
+      <c r="E32" s="6" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1521,7 +1523,7 @@
         <f aca="false">1/7</f>
         <v>0.142857142857143</v>
       </c>
-      <c r="E33" s="7" t="s">
+      <c r="E33" s="6" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1539,7 +1541,7 @@
         <f aca="false">1/7</f>
         <v>0.142857142857143</v>
       </c>
-      <c r="E34" s="7" t="s">
+      <c r="E34" s="6" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1557,7 +1559,7 @@
         <f aca="false">1/7</f>
         <v>0.142857142857143</v>
       </c>
-      <c r="E35" s="7" t="s">
+      <c r="E35" s="6" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1575,13 +1577,27 @@
         <f aca="false">1/7</f>
         <v>0.142857142857143</v>
       </c>
-      <c r="E36" s="7" t="s">
+      <c r="E36" s="6" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="5"/>
-      <c r="B37" s="5"/>
+      <c r="A37" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B37" s="5" t="n">
+        <v>46048</v>
+      </c>
+      <c r="C37" s="5" t="n">
+        <v>55146</v>
+      </c>
+      <c r="D37" s="6" t="n">
+        <f aca="false">1/7</f>
+        <v>0.142857142857143</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="5"/>
@@ -1679,16 +1695,16 @@
   </sheetPr>
   <dimension ref="A1:E56"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2:C8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.32"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="19.93"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="26.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="15.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="20.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="19.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="26.43"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1704,7 +1720,7 @@
       <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1719,7 +1735,7 @@
         <v>55146</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E2" s="6" t="n">
         <f aca="false">1/7</f>
@@ -1791,7 +1807,7 @@
         <v>55146</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E6" s="6" t="n">
         <f aca="false">1/7</f>
@@ -1809,7 +1825,7 @@
         <v>55146</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E7" s="6" t="n">
         <f aca="false">1/7</f>
@@ -1845,7 +1861,7 @@
         <v>45992</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E9" s="6" t="n">
         <f aca="false">1/7</f>
@@ -1863,7 +1879,7 @@
         <v>45992</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E10" s="6" t="n">
         <f aca="false">1/7</f>
@@ -1872,7 +1888,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B11" s="5" t="n">
         <v>45931</v>
@@ -1881,7 +1897,7 @@
         <v>45964</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E11" s="6" t="n">
         <f aca="false">1/7</f>
@@ -1935,7 +1951,7 @@
         <v>45930</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E14" s="6" t="n">
         <f aca="false">1/7</f>
@@ -1953,7 +1969,7 @@
         <v>45930</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E15" s="6" t="n">
         <f aca="false">1/7</f>
@@ -1971,7 +1987,7 @@
         <v>45902</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E16" s="6" t="n">
         <f aca="false">1/7</f>
@@ -1980,7 +1996,7 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B17" s="5" t="n">
         <v>45870</v>
@@ -1989,7 +2005,7 @@
         <v>45902</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E17" s="6" t="n">
         <f aca="false">1/7</f>
@@ -2025,7 +2041,7 @@
         <v>45869</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E19" s="6" t="n">
         <f aca="false">1/7</f>
@@ -2043,7 +2059,7 @@
         <v>45838</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E20" s="6" t="n">
         <f aca="false">1/7</f>
@@ -2061,7 +2077,7 @@
         <v>45838</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E21" s="6" t="n">
         <f aca="false">1/7</f>
@@ -2070,7 +2086,7 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B22" s="5" t="n">
         <v>45778</v>
@@ -2079,7 +2095,7 @@
         <v>45838</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E22" s="6" t="n">
         <f aca="false">1/7</f>
@@ -2106,7 +2122,7 @@
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B24" s="5" t="n">
         <v>45748</v>
@@ -2115,7 +2131,7 @@
         <v>45810</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E24" s="6" t="n">
         <f aca="false">1/7</f>
@@ -2133,7 +2149,7 @@
         <v>45777</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E25" s="6" t="n">
         <f aca="false">1/7</f>
@@ -2160,7 +2176,7 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B27" s="5" t="n">
         <v>45748</v>
@@ -2169,7 +2185,7 @@
         <v>45777</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E27" s="6" t="n">
         <f aca="false">1/7</f>
@@ -2187,7 +2203,7 @@
         <v>45747</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E28" s="6" t="n">
         <f aca="false">1/7</f>
@@ -2205,7 +2221,7 @@
         <v>45747</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E29" s="6" t="n">
         <f aca="false">1/7</f>
@@ -2223,7 +2239,7 @@
         <v>45747</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E30" s="6" t="n">
         <f aca="false">1/7</f>
@@ -2241,7 +2257,7 @@
         <v>45747</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E31" s="6" t="n">
         <f aca="false">1/7</f>
@@ -2259,7 +2275,7 @@
         <v>45747</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E32" s="6" t="n">
         <f aca="false">1/7</f>
@@ -2304,7 +2320,7 @@
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="4" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B35" s="5" t="n">
         <v>45653</v>
@@ -2313,7 +2329,7 @@
         <v>45659</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E35" s="6" t="n">
         <f aca="false">1/7</f>
@@ -2322,7 +2338,7 @@
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B36" s="5" t="n">
         <v>45653</v>
@@ -2331,7 +2347,7 @@
         <v>45659</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E36" s="6" t="n">
         <f aca="false">1/7</f>
@@ -2340,7 +2356,7 @@
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="4" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B37" s="5" t="n">
         <v>45653</v>
@@ -2349,7 +2365,7 @@
         <v>45659</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E37" s="6" t="n">
         <f aca="false">1/7</f>

--- a/src/AlgoComposition.xlsx
+++ b/src/AlgoComposition.xlsx
@@ -14,8 +14,8 @@
     <sheet name="2015" sheetId="4" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">'2015'!$A$1:$E$37</definedName>
-    <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">'2020'!$A$1:$E$37</definedName>
+    <definedName function="false" hidden="true" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">'2015'!$A$1:$E$39</definedName>
+    <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">'2020'!$A$1:$E$38</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="88">
   <si>
     <t xml:space="preserve">Symbol</t>
   </si>
@@ -107,6 +107,12 @@
     <t xml:space="preserve">Micron</t>
   </si>
   <si>
+    <t xml:space="preserve">SNDK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sandisk Corporation</t>
+  </si>
+  <si>
     <t xml:space="preserve">HOOD</t>
   </si>
   <si>
@@ -218,6 +224,9 @@
     <t xml:space="preserve">Palantir Technologies</t>
   </si>
   <si>
+    <t xml:space="preserve">PepsiCo</t>
+  </si>
+  <si>
     <t xml:space="preserve">AutoZone</t>
   </si>
   <si>
@@ -231,9 +240,6 @@
   </si>
   <si>
     <t xml:space="preserve">MercadoLibre</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PepsiCo</t>
   </si>
   <si>
     <t xml:space="preserve">Amphenol</t>
@@ -921,10 +927,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E56"/>
+  <dimension ref="A1:E57"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
+      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1064,7 +1070,7 @@
         <v>26</v>
       </c>
       <c r="B8" s="5" t="n">
-        <v>46048</v>
+        <v>46061</v>
       </c>
       <c r="C8" s="5" t="n">
         <v>55146</v>
@@ -1079,61 +1085,61 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B9" s="5" t="n">
-        <v>45993</v>
+        <v>46048</v>
       </c>
       <c r="C9" s="5" t="n">
-        <v>46047</v>
+        <v>46060</v>
       </c>
       <c r="D9" s="6" t="n">
         <f aca="false">1/7</f>
         <v>0.142857142857143</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B10" s="5" t="n">
-        <v>45903</v>
+        <v>45993</v>
       </c>
       <c r="C10" s="5" t="n">
-        <v>45992</v>
+        <v>46047</v>
       </c>
       <c r="D10" s="6" t="n">
         <f aca="false">1/7</f>
         <v>0.142857142857143</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="B11" s="5" t="n">
-        <v>45931</v>
+        <v>45903</v>
       </c>
       <c r="C11" s="5" t="n">
-        <v>45964</v>
+        <v>45992</v>
       </c>
       <c r="D11" s="6" t="n">
         <f aca="false">1/7</f>
         <v>0.142857142857143</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="B12" s="5" t="n">
         <v>45931</v>
@@ -1146,7 +1152,7 @@
         <v>0.142857142857143</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1154,25 +1160,25 @@
         <v>32</v>
       </c>
       <c r="B13" s="5" t="n">
-        <v>45778</v>
+        <v>45931</v>
       </c>
       <c r="C13" s="5" t="n">
-        <v>45930</v>
+        <v>45964</v>
       </c>
       <c r="D13" s="6" t="n">
         <f aca="false">1/7</f>
         <v>0.142857142857143</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B14" s="5" t="n">
-        <v>45839</v>
+        <v>45778</v>
       </c>
       <c r="C14" s="5" t="n">
         <v>45930</v>
@@ -1226,22 +1232,22 @@
         <v>39</v>
       </c>
       <c r="B17" s="5" t="n">
-        <v>45870</v>
+        <v>45839</v>
       </c>
       <c r="C17" s="5" t="n">
-        <v>45902</v>
+        <v>45930</v>
       </c>
       <c r="D17" s="6" t="n">
         <f aca="false">1/7</f>
         <v>0.142857142857143</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B18" s="5" t="n">
         <v>45870</v>
@@ -1262,10 +1268,10 @@
         <v>42</v>
       </c>
       <c r="B19" s="5" t="n">
-        <v>45692</v>
+        <v>45870</v>
       </c>
       <c r="C19" s="5" t="n">
-        <v>45869</v>
+        <v>45902</v>
       </c>
       <c r="D19" s="6" t="n">
         <f aca="false">1/7</f>
@@ -1277,10 +1283,10 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="4" t="s">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="B20" s="5" t="n">
-        <v>45653</v>
+        <v>45692</v>
       </c>
       <c r="C20" s="5" t="n">
         <v>45869</v>
@@ -1290,33 +1296,33 @@
         <v>0.142857142857143</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="4" t="s">
-        <v>44</v>
+        <v>5</v>
       </c>
       <c r="B21" s="5" t="n">
-        <v>45748</v>
+        <v>45653</v>
       </c>
       <c r="C21" s="5" t="n">
-        <v>45838</v>
+        <v>45869</v>
       </c>
       <c r="D21" s="6" t="n">
         <f aca="false">1/7</f>
         <v>0.142857142857143</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>44</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B22" s="5" t="n">
-        <v>45778</v>
+        <v>45748</v>
       </c>
       <c r="C22" s="5" t="n">
         <v>45838</v>
@@ -1334,7 +1340,7 @@
         <v>47</v>
       </c>
       <c r="B23" s="5" t="n">
-        <v>45811</v>
+        <v>45778</v>
       </c>
       <c r="C23" s="5" t="n">
         <v>45838</v>
@@ -1352,43 +1358,43 @@
         <v>49</v>
       </c>
       <c r="B24" s="5" t="n">
-        <v>45778</v>
+        <v>45811</v>
       </c>
       <c r="C24" s="5" t="n">
-        <v>45810</v>
+        <v>45838</v>
       </c>
       <c r="D24" s="6" t="n">
         <f aca="false">1/7</f>
         <v>0.142857142857143</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="4" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="B25" s="5" t="n">
-        <v>45748</v>
+        <v>45778</v>
       </c>
       <c r="C25" s="5" t="n">
-        <v>45777</v>
+        <v>45810</v>
       </c>
       <c r="D25" s="6" t="n">
         <f aca="false">1/7</f>
         <v>0.142857142857143</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="4" t="s">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="B26" s="5" t="n">
-        <v>45692</v>
+        <v>45748</v>
       </c>
       <c r="C26" s="5" t="n">
         <v>45777</v>
@@ -1398,7 +1404,7 @@
         <v>0.142857142857143</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>51</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1406,7 +1412,7 @@
         <v>52</v>
       </c>
       <c r="B27" s="5" t="n">
-        <v>45748</v>
+        <v>45692</v>
       </c>
       <c r="C27" s="5" t="n">
         <v>45777</v>
@@ -1421,25 +1427,25 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="4" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="B28" s="5" t="n">
-        <v>45653</v>
+        <v>45748</v>
       </c>
       <c r="C28" s="5" t="n">
-        <v>45747</v>
+        <v>45777</v>
       </c>
       <c r="D28" s="6" t="n">
         <f aca="false">1/7</f>
         <v>0.142857142857143</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>24</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="4" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="B29" s="5" t="n">
         <v>45653</v>
@@ -1452,15 +1458,15 @@
         <v>0.142857142857143</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>55</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="4" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="B30" s="5" t="n">
-        <v>45660</v>
+        <v>45653</v>
       </c>
       <c r="C30" s="5" t="n">
         <v>45747</v>
@@ -1470,12 +1476,12 @@
         <v>0.142857142857143</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B31" s="5" t="n">
         <v>45660</v>
@@ -1488,30 +1494,30 @@
         <v>0.142857142857143</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="4" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="B32" s="5" t="n">
         <v>45660</v>
       </c>
       <c r="C32" s="5" t="n">
-        <v>45691</v>
+        <v>45747</v>
       </c>
       <c r="D32" s="6" t="n">
         <f aca="false">1/7</f>
         <v>0.142857142857143</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="4" t="s">
-        <v>9</v>
+        <v>58</v>
       </c>
       <c r="B33" s="5" t="n">
         <v>45660</v>
@@ -1524,30 +1530,30 @@
         <v>0.142857142857143</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="4" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B34" s="5" t="n">
-        <v>45653</v>
+        <v>45660</v>
       </c>
       <c r="C34" s="5" t="n">
-        <v>45659</v>
+        <v>45691</v>
       </c>
       <c r="D34" s="6" t="n">
         <f aca="false">1/7</f>
         <v>0.142857142857143</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B35" s="5" t="n">
         <v>45653</v>
@@ -1560,12 +1566,12 @@
         <v>0.142857142857143</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B36" s="5" t="n">
         <v>45653</v>
@@ -1578,12 +1584,12 @@
         <v>0.142857142857143</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="4" t="s">
-        <v>58</v>
+        <v>19</v>
       </c>
       <c r="B37" s="5" t="n">
         <v>45653</v>
@@ -1596,12 +1602,26 @@
         <v>0.142857142857143</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="5"/>
-      <c r="B38" s="5"/>
+      <c r="A38" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B38" s="5" t="n">
+        <v>45653</v>
+      </c>
+      <c r="C38" s="5" t="n">
+        <v>45659</v>
+      </c>
+      <c r="D38" s="6" t="n">
+        <f aca="false">1/7</f>
+        <v>0.142857142857143</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="5"/>
@@ -1675,8 +1695,12 @@
       <c r="A56" s="5"/>
       <c r="B56" s="5"/>
     </row>
+    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="5"/>
+      <c r="B57" s="5"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:E37"/>
+  <autoFilter ref="A1:E38"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -1693,10 +1717,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E56"/>
+  <dimension ref="A1:E58"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1735,7 +1759,7 @@
         <v>55146</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E2" s="6" t="n">
         <f aca="false">1/7</f>
@@ -1762,7 +1786,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B4" s="5" t="n">
         <v>45993</v>
@@ -1771,7 +1795,7 @@
         <v>55146</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E4" s="6" t="n">
         <f aca="false">1/7</f>
@@ -1780,16 +1804,16 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B5" s="5" t="n">
-        <v>45993</v>
+        <v>45931</v>
       </c>
       <c r="C5" s="5" t="n">
         <v>55146</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="E5" s="6" t="n">
         <f aca="false">1/7</f>
@@ -1798,16 +1822,16 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B6" s="5" t="n">
-        <v>45931</v>
+        <v>45748</v>
       </c>
       <c r="C6" s="5" t="n">
         <v>55146</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E6" s="6" t="n">
         <f aca="false">1/7</f>
@@ -1816,16 +1840,16 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="B7" s="5" t="n">
-        <v>45748</v>
+        <v>45696</v>
       </c>
       <c r="C7" s="5" t="n">
         <v>55146</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="E7" s="6" t="n">
         <f aca="false">1/7</f>
@@ -1834,16 +1858,16 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="B8" s="5" t="n">
-        <v>45931</v>
+        <v>45696</v>
       </c>
       <c r="C8" s="5" t="n">
         <v>55146</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="E8" s="6" t="n">
         <f aca="false">1/7</f>
@@ -1852,16 +1876,16 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="B9" s="5" t="n">
-        <v>45903</v>
+        <v>45993</v>
       </c>
       <c r="C9" s="5" t="n">
-        <v>45992</v>
+        <v>46060</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>63</v>
+        <v>14</v>
       </c>
       <c r="E9" s="6" t="n">
         <f aca="false">1/7</f>
@@ -1870,16 +1894,16 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B10" s="5" t="n">
-        <v>45903</v>
+        <v>45931</v>
       </c>
       <c r="C10" s="5" t="n">
-        <v>45992</v>
+        <v>46060</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>64</v>
+        <v>22</v>
       </c>
       <c r="E10" s="6" t="n">
         <f aca="false">1/7</f>
@@ -1888,13 +1912,13 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="B11" s="5" t="n">
-        <v>45931</v>
+        <v>45903</v>
       </c>
       <c r="C11" s="5" t="n">
-        <v>45964</v>
+        <v>45992</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>66</v>
@@ -1906,16 +1930,16 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B12" s="5" t="n">
-        <v>45839</v>
+        <v>45903</v>
       </c>
       <c r="C12" s="5" t="n">
-        <v>45930</v>
+        <v>45992</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="E12" s="6" t="n">
         <f aca="false">1/7</f>
@@ -1924,16 +1948,16 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="B13" s="5" t="n">
-        <v>45839</v>
+        <v>45931</v>
       </c>
       <c r="C13" s="5" t="n">
-        <v>45930</v>
+        <v>45964</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="E13" s="6" t="n">
         <f aca="false">1/7</f>
@@ -1942,7 +1966,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B14" s="5" t="n">
         <v>45839</v>
@@ -1951,7 +1975,7 @@
         <v>45930</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>67</v>
+        <v>36</v>
       </c>
       <c r="E14" s="6" t="n">
         <f aca="false">1/7</f>
@@ -1960,7 +1984,7 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B15" s="5" t="n">
         <v>45839</v>
@@ -1969,7 +1993,7 @@
         <v>45930</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="E15" s="6" t="n">
         <f aca="false">1/7</f>
@@ -1978,16 +2002,16 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="B16" s="5" t="n">
-        <v>45870</v>
+        <v>45839</v>
       </c>
       <c r="C16" s="5" t="n">
-        <v>45902</v>
+        <v>45930</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E16" s="6" t="n">
         <f aca="false">1/7</f>
@@ -1996,16 +2020,16 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="5" t="n">
+        <v>45839</v>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>45930</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>65</v>
-      </c>
-      <c r="B17" s="5" t="n">
-        <v>45870</v>
-      </c>
-      <c r="C17" s="5" t="n">
-        <v>45902</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>66</v>
       </c>
       <c r="E17" s="6" t="n">
         <f aca="false">1/7</f>
@@ -2014,16 +2038,16 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="4" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B18" s="5" t="n">
-        <v>45748</v>
+        <v>45870</v>
       </c>
       <c r="C18" s="5" t="n">
-        <v>45869</v>
+        <v>45902</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="E18" s="6" t="n">
         <f aca="false">1/7</f>
@@ -2032,16 +2056,16 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="s">
-        <v>5</v>
+        <v>68</v>
       </c>
       <c r="B19" s="5" t="n">
-        <v>45653</v>
+        <v>45870</v>
       </c>
       <c r="C19" s="5" t="n">
-        <v>45869</v>
+        <v>45902</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="E19" s="6" t="n">
         <f aca="false">1/7</f>
@@ -2050,16 +2074,16 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="4" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="B20" s="5" t="n">
-        <v>45778</v>
+        <v>45748</v>
       </c>
       <c r="C20" s="5" t="n">
-        <v>45838</v>
+        <v>45869</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="E20" s="6" t="n">
         <f aca="false">1/7</f>
@@ -2068,16 +2092,16 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="4" t="s">
-        <v>49</v>
+        <v>5</v>
       </c>
       <c r="B21" s="5" t="n">
-        <v>45778</v>
+        <v>45653</v>
       </c>
       <c r="C21" s="5" t="n">
-        <v>45838</v>
+        <v>45869</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="E21" s="6" t="n">
         <f aca="false">1/7</f>
@@ -2086,7 +2110,7 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="4" t="s">
-        <v>71</v>
+        <v>34</v>
       </c>
       <c r="B22" s="5" t="n">
         <v>45778</v>
@@ -2095,7 +2119,7 @@
         <v>45838</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E22" s="6" t="n">
         <f aca="false">1/7</f>
@@ -2104,16 +2128,16 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="4" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B23" s="5" t="n">
-        <v>45811</v>
+        <v>45778</v>
       </c>
       <c r="C23" s="5" t="n">
         <v>45838</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="E23" s="6" t="n">
         <f aca="false">1/7</f>
@@ -2125,10 +2149,10 @@
         <v>73</v>
       </c>
       <c r="B24" s="5" t="n">
-        <v>45748</v>
+        <v>45778</v>
       </c>
       <c r="C24" s="5" t="n">
-        <v>45810</v>
+        <v>45838</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>74</v>
@@ -2140,16 +2164,16 @@
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25" s="5" t="n">
+        <v>45811</v>
+      </c>
+      <c r="C25" s="5" t="n">
+        <v>45838</v>
+      </c>
+      <c r="D25" s="4" t="s">
         <v>50</v>
-      </c>
-      <c r="B25" s="5" t="n">
-        <v>45692</v>
-      </c>
-      <c r="C25" s="5" t="n">
-        <v>45777</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>75</v>
       </c>
       <c r="E25" s="6" t="n">
         <f aca="false">1/7</f>
@@ -2158,16 +2182,16 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="4" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="B26" s="5" t="n">
         <v>45748</v>
       </c>
       <c r="C26" s="5" t="n">
-        <v>45777</v>
+        <v>45810</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="E26" s="6" t="n">
         <f aca="false">1/7</f>
@@ -2176,10 +2200,10 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="4" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="B27" s="5" t="n">
-        <v>45748</v>
+        <v>45692</v>
       </c>
       <c r="C27" s="5" t="n">
         <v>45777</v>
@@ -2194,16 +2218,16 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="4" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="B28" s="5" t="n">
-        <v>45653</v>
+        <v>45748</v>
       </c>
       <c r="C28" s="5" t="n">
-        <v>45747</v>
+        <v>45777</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E28" s="6" t="n">
         <f aca="false">1/7</f>
@@ -2212,16 +2236,16 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="4" t="s">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="B29" s="5" t="n">
-        <v>45653</v>
+        <v>45748</v>
       </c>
       <c r="C29" s="5" t="n">
-        <v>45747</v>
+        <v>45777</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E29" s="6" t="n">
         <f aca="false">1/7</f>
@@ -2230,16 +2254,16 @@
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="4" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="B30" s="5" t="n">
-        <v>45660</v>
+        <v>45653</v>
       </c>
       <c r="C30" s="5" t="n">
         <v>45747</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="E30" s="6" t="n">
         <f aca="false">1/7</f>
@@ -2248,16 +2272,16 @@
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="4" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="B31" s="5" t="n">
-        <v>45660</v>
+        <v>45653</v>
       </c>
       <c r="C31" s="5" t="n">
         <v>45747</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="E31" s="6" t="n">
         <f aca="false">1/7</f>
@@ -2266,7 +2290,7 @@
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="4" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="B32" s="5" t="n">
         <v>45660</v>
@@ -2275,7 +2299,7 @@
         <v>45747</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="E32" s="6" t="n">
         <f aca="false">1/7</f>
@@ -2284,16 +2308,16 @@
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="4" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B33" s="5" t="n">
         <v>45660</v>
       </c>
       <c r="C33" s="5" t="n">
-        <v>45691</v>
+        <v>45747</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="E33" s="6" t="n">
         <f aca="false">1/7</f>
@@ -2302,16 +2326,16 @@
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="4" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="B34" s="5" t="n">
-        <v>45653</v>
+        <v>45660</v>
       </c>
       <c r="C34" s="5" t="n">
-        <v>45659</v>
+        <v>45747</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="E34" s="6" t="n">
         <f aca="false">1/7</f>
@@ -2320,16 +2344,16 @@
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="4" t="s">
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="B35" s="5" t="n">
-        <v>45653</v>
+        <v>45660</v>
       </c>
       <c r="C35" s="5" t="n">
-        <v>45659</v>
+        <v>45691</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>81</v>
+        <v>36</v>
       </c>
       <c r="E35" s="6" t="n">
         <f aca="false">1/7</f>
@@ -2338,7 +2362,7 @@
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="4" t="s">
-        <v>82</v>
+        <v>17</v>
       </c>
       <c r="B36" s="5" t="n">
         <v>45653</v>
@@ -2347,7 +2371,7 @@
         <v>45659</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>83</v>
+        <v>18</v>
       </c>
       <c r="E36" s="6" t="n">
         <f aca="false">1/7</f>
@@ -2356,7 +2380,7 @@
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B37" s="5" t="n">
         <v>45653</v>
@@ -2365,18 +2389,48 @@
         <v>45659</v>
       </c>
       <c r="D37" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E37" s="6" t="n">
+        <f aca="false">1/7</f>
+        <v>0.142857142857143</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B38" s="5" t="n">
+        <v>45653</v>
+      </c>
+      <c r="C38" s="5" t="n">
+        <v>45659</v>
+      </c>
+      <c r="D38" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="E37" s="6" t="n">
-        <f aca="false">1/7</f>
-        <v>0.142857142857143</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="5"/>
+      <c r="E38" s="6" t="n">
+        <f aca="false">1/7</f>
+        <v>0.142857142857143</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="5"/>
+      <c r="A39" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B39" s="5" t="n">
+        <v>45653</v>
+      </c>
+      <c r="C39" s="5" t="n">
+        <v>45659</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E39" s="6" t="n">
+        <f aca="false">1/7</f>
+        <v>0.142857142857143</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="5"/>
@@ -2429,8 +2483,14 @@
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="5"/>
     </row>
+    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="5"/>
+    </row>
+    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="5"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:E37"/>
+  <autoFilter ref="A1:E39"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/src/AlgoComposition.xlsx
+++ b/src/AlgoComposition.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="2020old" sheetId="1" state="visible" r:id="rId3"/>
@@ -929,7 +929,7 @@
   </sheetPr>
   <dimension ref="A1:E57"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -1719,8 +1719,8 @@
   </sheetPr>
   <dimension ref="A1:E58"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1843,7 +1843,7 @@
         <v>26</v>
       </c>
       <c r="B7" s="5" t="n">
-        <v>45696</v>
+        <v>46061</v>
       </c>
       <c r="C7" s="5" t="n">
         <v>55146</v>
@@ -1861,7 +1861,7 @@
         <v>42</v>
       </c>
       <c r="B8" s="5" t="n">
-        <v>45696</v>
+        <v>46061</v>
       </c>
       <c r="C8" s="5" t="n">
         <v>55146</v>

--- a/src/AlgoComposition.xlsx
+++ b/src/AlgoComposition.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="2020old" sheetId="1" state="visible" r:id="rId3"/>
@@ -14,8 +14,8 @@
     <sheet name="2015" sheetId="4" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">'2015'!$A$1:$E$39</definedName>
-    <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">'2020'!$A$1:$E$38</definedName>
+    <definedName function="false" hidden="true" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">'2015'!$A$1:$E$41</definedName>
+    <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">'2020'!$A$1:$E$41</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="89">
   <si>
     <t xml:space="preserve">Symbol</t>
   </si>
@@ -104,6 +104,18 @@
     <t xml:space="preserve">Apple Inc.</t>
   </si>
   <si>
+    <t xml:space="preserve">GOOG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Google Inc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AMZN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amazon Inc.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Micron</t>
   </si>
   <si>
@@ -197,18 +209,9 @@
     <t xml:space="preserve">TJX Companies</t>
   </si>
   <si>
-    <t xml:space="preserve">AMZN</t>
-  </si>
-  <si>
     <t xml:space="preserve">Amazon</t>
   </si>
   <si>
-    <t xml:space="preserve">GOOG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Google Inc.</t>
-  </si>
-  <si>
     <t xml:space="preserve">V</t>
   </si>
   <si>
@@ -227,6 +230,9 @@
     <t xml:space="preserve">PepsiCo</t>
   </si>
   <si>
+    <t xml:space="preserve">Amazon.com</t>
+  </si>
+  <si>
     <t xml:space="preserve">AutoZone</t>
   </si>
   <si>
@@ -267,9 +273,6 @@
   </si>
   <si>
     <t xml:space="preserve">Walmart</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amazon.com</t>
   </si>
   <si>
     <t xml:space="preserve">Alphabet</t>
@@ -411,7 +414,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -440,7 +443,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -927,17 +938,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E57"/>
+  <dimension ref="A1:J60"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="17.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="18.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="25.75"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -959,10 +970,10 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B2" s="5" t="n">
-        <v>45931</v>
+        <v>46077</v>
       </c>
       <c r="C2" s="5" t="n">
         <v>55146</v>
@@ -972,15 +983,15 @@
         <v>0.142857142857143</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="B3" s="5" t="n">
-        <v>45931</v>
+        <v>46077</v>
       </c>
       <c r="C3" s="5" t="n">
         <v>55146</v>
@@ -990,15 +1001,15 @@
         <v>0.142857142857143</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="68" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B4" s="5" t="n">
-        <v>45965</v>
+        <v>45903</v>
       </c>
       <c r="C4" s="5" t="n">
         <v>55146</v>
@@ -1008,15 +1019,16 @@
         <v>0.142857142857143</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>14</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="I4" s="7"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B5" s="5" t="n">
-        <v>45903</v>
+        <v>45965</v>
       </c>
       <c r="C5" s="5" t="n">
         <v>55146</v>
@@ -1026,15 +1038,16 @@
         <v>0.142857142857143</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>25</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="I5" s="7"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B6" s="5" t="n">
-        <v>45965</v>
+        <v>45748</v>
       </c>
       <c r="C6" s="5" t="n">
         <v>55146</v>
@@ -1044,15 +1057,15 @@
         <v>0.142857142857143</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="B7" s="5" t="n">
-        <v>45748</v>
+        <v>46077</v>
       </c>
       <c r="C7" s="5" t="n">
         <v>55146</v>
@@ -1062,15 +1075,15 @@
         <v>0.142857142857143</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="68" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="B8" s="5" t="n">
-        <v>46061</v>
+        <v>45965</v>
       </c>
       <c r="C8" s="5" t="n">
         <v>55146</v>
@@ -1080,54 +1093,57 @@
         <v>0.142857142857143</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>27</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="J8" s="7"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="B9" s="5" t="n">
-        <v>46048</v>
+        <v>45931</v>
       </c>
       <c r="C9" s="5" t="n">
-        <v>46060</v>
+        <v>46076</v>
       </c>
       <c r="D9" s="6" t="n">
         <f aca="false">1/7</f>
         <v>0.142857142857143</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>29</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="J9" s="7"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B10" s="5" t="n">
-        <v>45993</v>
+        <v>45931</v>
       </c>
       <c r="C10" s="5" t="n">
-        <v>46047</v>
+        <v>46076</v>
       </c>
       <c r="D10" s="6" t="n">
         <f aca="false">1/7</f>
         <v>0.142857142857143</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="J10" s="7"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
         <v>30</v>
       </c>
       <c r="B11" s="5" t="n">
-        <v>45903</v>
+        <v>46061</v>
       </c>
       <c r="C11" s="5" t="n">
-        <v>45992</v>
+        <v>46076</v>
       </c>
       <c r="D11" s="6" t="n">
         <f aca="false">1/7</f>
@@ -1139,38 +1155,38 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="B12" s="5" t="n">
-        <v>45931</v>
+        <v>46048</v>
       </c>
       <c r="C12" s="5" t="n">
-        <v>45964</v>
+        <v>46060</v>
       </c>
       <c r="D12" s="6" t="n">
         <f aca="false">1/7</f>
         <v>0.142857142857143</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="B13" s="5" t="n">
-        <v>45931</v>
+        <v>45993</v>
       </c>
       <c r="C13" s="5" t="n">
-        <v>45964</v>
+        <v>46047</v>
       </c>
       <c r="D13" s="6" t="n">
         <f aca="false">1/7</f>
         <v>0.142857142857143</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1178,61 +1194,61 @@
         <v>34</v>
       </c>
       <c r="B14" s="5" t="n">
-        <v>45778</v>
+        <v>45903</v>
       </c>
       <c r="C14" s="5" t="n">
-        <v>45930</v>
+        <v>45992</v>
       </c>
       <c r="D14" s="6" t="n">
         <f aca="false">1/7</f>
         <v>0.142857142857143</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="B15" s="5" t="n">
-        <v>45839</v>
+        <v>45931</v>
       </c>
       <c r="C15" s="5" t="n">
-        <v>45930</v>
+        <v>45964</v>
       </c>
       <c r="D15" s="6" t="n">
         <f aca="false">1/7</f>
         <v>0.142857142857143</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="5" t="n">
+        <v>45931</v>
+      </c>
+      <c r="C16" s="5" t="n">
+        <v>45964</v>
+      </c>
+      <c r="D16" s="6" t="n">
+        <f aca="false">1/7</f>
+        <v>0.142857142857143</v>
+      </c>
+      <c r="E16" s="6" t="s">
         <v>37</v>
-      </c>
-      <c r="B16" s="5" t="n">
-        <v>45839</v>
-      </c>
-      <c r="C16" s="5" t="n">
-        <v>45930</v>
-      </c>
-      <c r="D16" s="6" t="n">
-        <f aca="false">1/7</f>
-        <v>0.142857142857143</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B17" s="5" t="n">
-        <v>45839</v>
+        <v>45778</v>
       </c>
       <c r="C17" s="5" t="n">
         <v>45930</v>
@@ -1242,79 +1258,79 @@
         <v>0.142857142857143</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B18" s="5" t="n">
-        <v>45870</v>
+        <v>45839</v>
       </c>
       <c r="C18" s="5" t="n">
-        <v>45902</v>
+        <v>45930</v>
       </c>
       <c r="D18" s="6" t="n">
         <f aca="false">1/7</f>
         <v>0.142857142857143</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="5" t="n">
+        <v>45839</v>
+      </c>
+      <c r="C19" s="5" t="n">
+        <v>45930</v>
+      </c>
+      <c r="D19" s="6" t="n">
+        <f aca="false">1/7</f>
+        <v>0.142857142857143</v>
+      </c>
+      <c r="E19" s="6" t="s">
         <v>42</v>
-      </c>
-      <c r="B19" s="5" t="n">
-        <v>45870</v>
-      </c>
-      <c r="C19" s="5" t="n">
-        <v>45902</v>
-      </c>
-      <c r="D19" s="6" t="n">
-        <f aca="false">1/7</f>
-        <v>0.142857142857143</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" s="5" t="n">
+        <v>45839</v>
+      </c>
+      <c r="C20" s="5" t="n">
+        <v>45930</v>
+      </c>
+      <c r="D20" s="6" t="n">
+        <f aca="false">1/7</f>
+        <v>0.142857142857143</v>
+      </c>
+      <c r="E20" s="6" t="s">
         <v>44</v>
-      </c>
-      <c r="B20" s="5" t="n">
-        <v>45692</v>
-      </c>
-      <c r="C20" s="5" t="n">
-        <v>45869</v>
-      </c>
-      <c r="D20" s="6" t="n">
-        <f aca="false">1/7</f>
-        <v>0.142857142857143</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="4" t="s">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="B21" s="5" t="n">
-        <v>45653</v>
+        <v>45870</v>
       </c>
       <c r="C21" s="5" t="n">
-        <v>45869</v>
+        <v>45902</v>
       </c>
       <c r="D21" s="6" t="n">
         <f aca="false">1/7</f>
         <v>0.142857142857143</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1322,118 +1338,118 @@
         <v>46</v>
       </c>
       <c r="B22" s="5" t="n">
-        <v>45748</v>
+        <v>45870</v>
       </c>
       <c r="C22" s="5" t="n">
-        <v>45838</v>
+        <v>45902</v>
       </c>
       <c r="D22" s="6" t="n">
         <f aca="false">1/7</f>
         <v>0.142857142857143</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B23" s="5" t="n">
-        <v>45778</v>
+        <v>45692</v>
       </c>
       <c r="C23" s="5" t="n">
-        <v>45838</v>
+        <v>45869</v>
       </c>
       <c r="D23" s="6" t="n">
         <f aca="false">1/7</f>
         <v>0.142857142857143</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="4" t="s">
-        <v>49</v>
+        <v>5</v>
       </c>
       <c r="B24" s="5" t="n">
-        <v>45811</v>
+        <v>45653</v>
       </c>
       <c r="C24" s="5" t="n">
-        <v>45838</v>
+        <v>45869</v>
       </c>
       <c r="D24" s="6" t="n">
         <f aca="false">1/7</f>
         <v>0.142857142857143</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>50</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B25" s="5" t="n">
-        <v>45778</v>
+        <v>45748</v>
       </c>
       <c r="C25" s="5" t="n">
-        <v>45810</v>
+        <v>45838</v>
       </c>
       <c r="D25" s="6" t="n">
         <f aca="false">1/7</f>
         <v>0.142857142857143</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="4" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="B26" s="5" t="n">
-        <v>45748</v>
+        <v>45778</v>
       </c>
       <c r="C26" s="5" t="n">
-        <v>45777</v>
+        <v>45838</v>
       </c>
       <c r="D26" s="6" t="n">
         <f aca="false">1/7</f>
         <v>0.142857142857143</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B27" s="5" t="n">
-        <v>45692</v>
+        <v>45811</v>
       </c>
       <c r="C27" s="5" t="n">
-        <v>45777</v>
+        <v>45838</v>
       </c>
       <c r="D27" s="6" t="n">
         <f aca="false">1/7</f>
         <v>0.142857142857143</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B28" s="5" t="n">
-        <v>45748</v>
+        <v>45778</v>
       </c>
       <c r="C28" s="5" t="n">
-        <v>45777</v>
+        <v>45810</v>
       </c>
       <c r="D28" s="6" t="n">
         <f aca="false">1/7</f>
@@ -1445,20 +1461,20 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="4" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="B29" s="5" t="n">
-        <v>45653</v>
+        <v>45748</v>
       </c>
       <c r="C29" s="5" t="n">
-        <v>45747</v>
+        <v>45777</v>
       </c>
       <c r="D29" s="6" t="n">
         <f aca="false">1/7</f>
         <v>0.142857142857143</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1466,10 +1482,10 @@
         <v>56</v>
       </c>
       <c r="B30" s="5" t="n">
-        <v>45653</v>
+        <v>45692</v>
       </c>
       <c r="C30" s="5" t="n">
-        <v>45747</v>
+        <v>45777</v>
       </c>
       <c r="D30" s="6" t="n">
         <f aca="false">1/7</f>
@@ -1481,28 +1497,28 @@
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="4" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="B31" s="5" t="n">
-        <v>45660</v>
+        <v>45748</v>
       </c>
       <c r="C31" s="5" t="n">
-        <v>45747</v>
+        <v>45777</v>
       </c>
       <c r="D31" s="6" t="n">
         <f aca="false">1/7</f>
         <v>0.142857142857143</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="4" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="B32" s="5" t="n">
-        <v>45660</v>
+        <v>45653</v>
       </c>
       <c r="C32" s="5" t="n">
         <v>45747</v>
@@ -1512,102 +1528,102 @@
         <v>0.142857142857143</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="4" t="s">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="B33" s="5" t="n">
-        <v>45660</v>
+        <v>45653</v>
       </c>
       <c r="C33" s="5" t="n">
-        <v>45691</v>
+        <v>45747</v>
       </c>
       <c r="D33" s="6" t="n">
         <f aca="false">1/7</f>
         <v>0.142857142857143</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="4" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="B34" s="5" t="n">
         <v>45660</v>
       </c>
       <c r="C34" s="5" t="n">
-        <v>45691</v>
+        <v>45747</v>
       </c>
       <c r="D34" s="6" t="n">
         <f aca="false">1/7</f>
         <v>0.142857142857143</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="4" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="B35" s="5" t="n">
-        <v>45653</v>
+        <v>45660</v>
       </c>
       <c r="C35" s="5" t="n">
-        <v>45659</v>
+        <v>45747</v>
       </c>
       <c r="D35" s="6" t="n">
         <f aca="false">1/7</f>
         <v>0.142857142857143</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="4" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B36" s="5" t="n">
-        <v>45653</v>
+        <v>45660</v>
       </c>
       <c r="C36" s="5" t="n">
-        <v>45659</v>
+        <v>45691</v>
       </c>
       <c r="D36" s="6" t="n">
         <f aca="false">1/7</f>
         <v>0.142857142857143</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="4" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B37" s="5" t="n">
-        <v>45653</v>
+        <v>45660</v>
       </c>
       <c r="C37" s="5" t="n">
-        <v>45659</v>
+        <v>45691</v>
       </c>
       <c r="D37" s="6" t="n">
         <f aca="false">1/7</f>
         <v>0.142857142857143</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="4" t="s">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="B38" s="5" t="n">
         <v>45653</v>
@@ -1620,20 +1636,62 @@
         <v>0.142857142857143</v>
       </c>
       <c r="E38" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B39" s="5" t="n">
+        <v>45653</v>
+      </c>
+      <c r="C39" s="5" t="n">
+        <v>45659</v>
+      </c>
+      <c r="D39" s="6" t="n">
+        <f aca="false">1/7</f>
+        <v>0.142857142857143</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B40" s="5" t="n">
+        <v>45653</v>
+      </c>
+      <c r="C40" s="5" t="n">
+        <v>45659</v>
+      </c>
+      <c r="D40" s="6" t="n">
+        <f aca="false">1/7</f>
+        <v>0.142857142857143</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="4" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="5"/>
-      <c r="B39" s="5"/>
-    </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="5"/>
-      <c r="B40" s="5"/>
-    </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="5"/>
-      <c r="B41" s="5"/>
+      <c r="B41" s="5" t="n">
+        <v>45653</v>
+      </c>
+      <c r="C41" s="5" t="n">
+        <v>45659</v>
+      </c>
+      <c r="D41" s="6" t="n">
+        <f aca="false">1/7</f>
+        <v>0.142857142857143</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="5"/>
@@ -1699,8 +1757,20 @@
       <c r="A57" s="5"/>
       <c r="B57" s="5"/>
     </row>
+    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="5"/>
+      <c r="B58" s="5"/>
+    </row>
+    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="5"/>
+      <c r="B59" s="5"/>
+    </row>
+    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="5"/>
+      <c r="B60" s="5"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:E38"/>
+  <autoFilter ref="A1:E41"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -1717,10 +1787,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E58"/>
+  <dimension ref="A1:I58"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1744,7 +1814,7 @@
       <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1759,7 +1829,7 @@
         <v>55146</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E2" s="6" t="n">
         <f aca="false">1/7</f>
@@ -1768,16 +1838,16 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B3" s="5" t="n">
-        <v>45931</v>
+        <v>45993</v>
       </c>
       <c r="C3" s="5" t="n">
         <v>55146</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E3" s="6" t="n">
         <f aca="false">1/7</f>
@@ -1786,16 +1856,16 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B4" s="5" t="n">
-        <v>45993</v>
+        <v>45931</v>
       </c>
       <c r="C4" s="5" t="n">
         <v>55146</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="E4" s="6" t="n">
         <f aca="false">1/7</f>
@@ -1804,106 +1874,110 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B5" s="5" t="n">
-        <v>45931</v>
+        <v>45748</v>
       </c>
       <c r="C5" s="5" t="n">
         <v>55146</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E5" s="6" t="n">
         <f aca="false">1/7</f>
         <v>0.142857142857143</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="68" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="B6" s="5" t="n">
-        <v>45748</v>
+        <v>46061</v>
       </c>
       <c r="C6" s="5" t="n">
         <v>55146</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E6" s="6" t="n">
         <f aca="false">1/7</f>
         <v>0.142857142857143</v>
       </c>
+      <c r="H6" s="7"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="5" t="n">
-        <v>46061</v>
+      <c r="A7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="9" t="n">
+        <v>46073</v>
       </c>
       <c r="C7" s="5" t="n">
         <v>55146</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>27</v>
+      <c r="D7" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="E7" s="6" t="n">
         <f aca="false">1/7</f>
         <v>0.142857142857143</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B8" s="5" t="n">
-        <v>46061</v>
+    <row r="8" customFormat="false" ht="68" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="9" t="n">
+        <v>46073</v>
       </c>
       <c r="C8" s="5" t="n">
         <v>55146</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>65</v>
+      <c r="D8" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="E8" s="6" t="n">
         <f aca="false">1/7</f>
         <v>0.142857142857143</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+    </row>
+    <row r="9" customFormat="false" ht="68" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B9" s="5" t="n">
-        <v>45993</v>
+        <v>45931</v>
       </c>
       <c r="C9" s="5" t="n">
-        <v>46060</v>
+        <v>46072</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E9" s="6" t="n">
         <f aca="false">1/7</f>
         <v>0.142857142857143</v>
       </c>
+      <c r="I9" s="7"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="B10" s="5" t="n">
-        <v>45931</v>
+        <v>46061</v>
       </c>
       <c r="C10" s="5" t="n">
-        <v>46060</v>
+        <v>46072</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="E10" s="6" t="n">
         <f aca="false">1/7</f>
@@ -1912,16 +1986,16 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="B11" s="5" t="n">
-        <v>45903</v>
+        <v>45993</v>
       </c>
       <c r="C11" s="5" t="n">
-        <v>45992</v>
+        <v>46060</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>66</v>
+        <v>14</v>
       </c>
       <c r="E11" s="6" t="n">
         <f aca="false">1/7</f>
@@ -1930,16 +2004,16 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B12" s="5" t="n">
-        <v>45903</v>
+        <v>45931</v>
       </c>
       <c r="C12" s="5" t="n">
-        <v>45992</v>
+        <v>46060</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="E12" s="6" t="n">
         <f aca="false">1/7</f>
@@ -1948,16 +2022,16 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="5" t="n">
+        <v>45903</v>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>45992</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>68</v>
-      </c>
-      <c r="B13" s="5" t="n">
-        <v>45931</v>
-      </c>
-      <c r="C13" s="5" t="n">
-        <v>45964</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>69</v>
       </c>
       <c r="E13" s="6" t="n">
         <f aca="false">1/7</f>
@@ -1966,16 +2040,16 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B14" s="5" t="n">
-        <v>45839</v>
+        <v>45903</v>
       </c>
       <c r="C14" s="5" t="n">
-        <v>45930</v>
+        <v>45992</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="E14" s="6" t="n">
         <f aca="false">1/7</f>
@@ -1984,16 +2058,16 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="B15" s="5" t="n">
-        <v>45839</v>
+        <v>45931</v>
       </c>
       <c r="C15" s="5" t="n">
-        <v>45930</v>
+        <v>45964</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="E15" s="6" t="n">
         <f aca="false">1/7</f>
@@ -2011,7 +2085,7 @@
         <v>45930</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="E16" s="6" t="n">
         <f aca="false">1/7</f>
@@ -2020,7 +2094,7 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B17" s="5" t="n">
         <v>45839</v>
@@ -2029,7 +2103,7 @@
         <v>45930</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="E17" s="6" t="n">
         <f aca="false">1/7</f>
@@ -2038,16 +2112,16 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="4" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="B18" s="5" t="n">
-        <v>45870</v>
+        <v>45839</v>
       </c>
       <c r="C18" s="5" t="n">
-        <v>45902</v>
+        <v>45930</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E18" s="6" t="n">
         <f aca="false">1/7</f>
@@ -2056,16 +2130,16 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="B19" s="5" t="n">
-        <v>45870</v>
+        <v>45839</v>
       </c>
       <c r="C19" s="5" t="n">
-        <v>45902</v>
+        <v>45930</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E19" s="6" t="n">
         <f aca="false">1/7</f>
@@ -2074,16 +2148,16 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="4" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B20" s="5" t="n">
-        <v>45748</v>
+        <v>45870</v>
       </c>
       <c r="C20" s="5" t="n">
-        <v>45869</v>
+        <v>45902</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>45</v>
+        <v>73</v>
       </c>
       <c r="E20" s="6" t="n">
         <f aca="false">1/7</f>
@@ -2092,16 +2166,16 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="4" t="s">
-        <v>5</v>
+        <v>70</v>
       </c>
       <c r="B21" s="5" t="n">
-        <v>45653</v>
+        <v>45870</v>
       </c>
       <c r="C21" s="5" t="n">
-        <v>45869</v>
+        <v>45902</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="E21" s="6" t="n">
         <f aca="false">1/7</f>
@@ -2110,16 +2184,16 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="4" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="B22" s="5" t="n">
-        <v>45778</v>
+        <v>45748</v>
       </c>
       <c r="C22" s="5" t="n">
-        <v>45838</v>
+        <v>45869</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="E22" s="6" t="n">
         <f aca="false">1/7</f>
@@ -2128,16 +2202,16 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="4" t="s">
-        <v>51</v>
+        <v>5</v>
       </c>
       <c r="B23" s="5" t="n">
-        <v>45778</v>
+        <v>45653</v>
       </c>
       <c r="C23" s="5" t="n">
-        <v>45838</v>
+        <v>45869</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="E23" s="6" t="n">
         <f aca="false">1/7</f>
@@ -2146,7 +2220,7 @@
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="4" t="s">
-        <v>73</v>
+        <v>38</v>
       </c>
       <c r="B24" s="5" t="n">
         <v>45778</v>
@@ -2155,7 +2229,7 @@
         <v>45838</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E24" s="6" t="n">
         <f aca="false">1/7</f>
@@ -2164,16 +2238,16 @@
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="4" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B25" s="5" t="n">
-        <v>45811</v>
+        <v>45778</v>
       </c>
       <c r="C25" s="5" t="n">
         <v>45838</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="E25" s="6" t="n">
         <f aca="false">1/7</f>
@@ -2185,10 +2259,10 @@
         <v>75</v>
       </c>
       <c r="B26" s="5" t="n">
-        <v>45748</v>
+        <v>45778</v>
       </c>
       <c r="C26" s="5" t="n">
-        <v>45810</v>
+        <v>45838</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>76</v>
@@ -2200,16 +2274,16 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B27" s="5" t="n">
-        <v>45692</v>
+        <v>45811</v>
       </c>
       <c r="C27" s="5" t="n">
-        <v>45777</v>
+        <v>45838</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="E27" s="6" t="n">
         <f aca="false">1/7</f>
@@ -2218,16 +2292,16 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="4" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="B28" s="5" t="n">
         <v>45748</v>
       </c>
       <c r="C28" s="5" t="n">
-        <v>45777</v>
+        <v>45810</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="E28" s="6" t="n">
         <f aca="false">1/7</f>
@@ -2236,10 +2310,10 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="4" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="B29" s="5" t="n">
-        <v>45748</v>
+        <v>45692</v>
       </c>
       <c r="C29" s="5" t="n">
         <v>45777</v>
@@ -2254,16 +2328,16 @@
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="4" t="s">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="B30" s="5" t="n">
-        <v>45653</v>
+        <v>45748</v>
       </c>
       <c r="C30" s="5" t="n">
-        <v>45747</v>
+        <v>45777</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E30" s="6" t="n">
         <f aca="false">1/7</f>
@@ -2272,16 +2346,16 @@
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="4" t="s">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="B31" s="5" t="n">
-        <v>45653</v>
+        <v>45748</v>
       </c>
       <c r="C31" s="5" t="n">
-        <v>45747</v>
+        <v>45777</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E31" s="6" t="n">
         <f aca="false">1/7</f>
@@ -2290,16 +2364,16 @@
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="4" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="B32" s="5" t="n">
-        <v>45660</v>
+        <v>45653</v>
       </c>
       <c r="C32" s="5" t="n">
         <v>45747</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="E32" s="6" t="n">
         <f aca="false">1/7</f>
@@ -2308,16 +2382,16 @@
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="4" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="B33" s="5" t="n">
-        <v>45660</v>
+        <v>45653</v>
       </c>
       <c r="C33" s="5" t="n">
         <v>45747</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E33" s="6" t="n">
         <f aca="false">1/7</f>
@@ -2326,7 +2400,7 @@
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="4" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="B34" s="5" t="n">
         <v>45660</v>
@@ -2335,7 +2409,7 @@
         <v>45747</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="E34" s="6" t="n">
         <f aca="false">1/7</f>
@@ -2344,16 +2418,16 @@
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="4" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="B35" s="5" t="n">
         <v>45660</v>
       </c>
       <c r="C35" s="5" t="n">
-        <v>45691</v>
+        <v>45747</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="E35" s="6" t="n">
         <f aca="false">1/7</f>
@@ -2362,16 +2436,16 @@
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="4" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="B36" s="5" t="n">
-        <v>45653</v>
+        <v>45660</v>
       </c>
       <c r="C36" s="5" t="n">
-        <v>45659</v>
+        <v>45747</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="E36" s="6" t="n">
         <f aca="false">1/7</f>
@@ -2380,16 +2454,16 @@
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="4" t="s">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="B37" s="5" t="n">
-        <v>45653</v>
+        <v>45660</v>
       </c>
       <c r="C37" s="5" t="n">
-        <v>45659</v>
+        <v>45691</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="E37" s="6" t="n">
         <f aca="false">1/7</f>
@@ -2398,7 +2472,7 @@
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="4" t="s">
-        <v>84</v>
+        <v>17</v>
       </c>
       <c r="B38" s="5" t="n">
         <v>45653</v>
@@ -2407,7 +2481,7 @@
         <v>45659</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>85</v>
+        <v>18</v>
       </c>
       <c r="E38" s="6" t="n">
         <f aca="false">1/7</f>
@@ -2416,7 +2490,7 @@
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B39" s="5" t="n">
         <v>45653</v>
@@ -2425,18 +2499,48 @@
         <v>45659</v>
       </c>
       <c r="D39" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E39" s="6" t="n">
+        <f aca="false">1/7</f>
+        <v>0.142857142857143</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B40" s="5" t="n">
+        <v>45653</v>
+      </c>
+      <c r="C40" s="5" t="n">
+        <v>45659</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E40" s="6" t="n">
+        <f aca="false">1/7</f>
+        <v>0.142857142857143</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="E39" s="6" t="n">
-        <f aca="false">1/7</f>
-        <v>0.142857142857143</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="5"/>
-    </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="5"/>
+      <c r="B41" s="5" t="n">
+        <v>45653</v>
+      </c>
+      <c r="C41" s="5" t="n">
+        <v>45659</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E41" s="6" t="n">
+        <f aca="false">1/7</f>
+        <v>0.142857142857143</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="5"/>
@@ -2490,7 +2594,7 @@
       <c r="A58" s="5"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E39"/>
+  <autoFilter ref="A1:E41"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
